--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CDFA8A-4113-4A91-B743-CABC5DC4A3CF}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBEDAD70-0DF8-4367-8274-B8FC543168CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="294">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考卷 / 自修 / 講義</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1&lt;論語&gt;孔子與弟子言志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +752,381 @@
   </si>
   <si>
     <t>https://nicktsai88.github.io/PushChineseClassical-022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二回-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31齊人攫金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32某甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 &lt;菜根譚&gt;選: 待人處事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-034</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-035</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-036</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-037</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-038</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-039</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-040</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-041</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-042</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-043</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-044</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-045</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-046</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-047</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-048</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-049</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-050</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-051</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-052</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-053</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-054</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-055</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-056</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-057</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-058</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-059</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-060</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-061</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-062</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-063</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-064</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-065</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-066</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-067</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-068</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-069</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-070</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-071</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-072</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-073</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-074</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-075</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-076</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-077</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-078</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第五回-三國典故 (120個成語) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/ChineseIdiom2/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +1166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -818,50 +1189,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,18 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+      <selection activeCell="E302" sqref="A1:E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1255,38 +1577,38 @@
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1295,7 +1617,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1304,7 +1626,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -1313,7 +1635,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1322,29 +1644,29 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1353,7 +1675,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1362,27 +1684,29 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -1391,7 +1715,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1400,7 +1724,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -1409,7 +1733,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1418,451 +1742,451 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
-      <c r="B45" s="9"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
-      <c r="B46" s="9"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -1871,7 +2195,7 @@
     </row>
     <row r="58" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="2">
         <v>2</v>
@@ -1880,7 +2204,7 @@
     </row>
     <row r="59" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="2">
         <v>3</v>
@@ -1889,7 +2213,7 @@
     </row>
     <row r="60" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
-      <c r="B60" s="9"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="2">
         <v>4</v>
@@ -1898,7 +2222,7 @@
     </row>
     <row r="61" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="2">
         <v>5</v>
@@ -1907,7 +2231,7 @@
     </row>
     <row r="62" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="2">
         <v>6</v>
@@ -1916,7 +2240,7 @@
     </row>
     <row r="63" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
-      <c r="B63" s="9"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="2">
         <v>7</v>
@@ -1925,7 +2249,7 @@
     </row>
     <row r="64" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="2">
         <v>8</v>
@@ -1934,7 +2258,7 @@
     </row>
     <row r="65" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
-      <c r="B65" s="9"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="2">
         <v>9</v>
@@ -1943,7 +2267,7 @@
     </row>
     <row r="66" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
-      <c r="B66" s="9"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="2">
         <v>10</v>
@@ -1952,7 +2276,7 @@
     </row>
     <row r="67" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="2">
         <v>11</v>
@@ -1961,7 +2285,7 @@
     </row>
     <row r="68" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="2">
         <v>12</v>
@@ -1970,7 +2294,7 @@
     </row>
     <row r="69" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="2">
         <v>13</v>
@@ -1979,7 +2303,7 @@
     </row>
     <row r="70" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
-      <c r="B70" s="9"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="2">
         <v>14</v>
@@ -1988,7 +2312,7 @@
     </row>
     <row r="71" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="2">
         <v>15</v>
@@ -1997,7 +2321,7 @@
     </row>
     <row r="72" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="2">
         <v>16</v>
@@ -2006,7 +2330,7 @@
     </row>
     <row r="73" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="2">
         <v>17</v>
@@ -2015,7 +2339,7 @@
     </row>
     <row r="74" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="2">
         <v>18</v>
@@ -2024,7 +2348,7 @@
     </row>
     <row r="75" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="2">
         <v>19</v>
@@ -2033,7 +2357,7 @@
     </row>
     <row r="76" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
-      <c r="B76" s="9"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="2">
         <v>20</v>
@@ -2042,7 +2366,7 @@
     </row>
     <row r="77" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="2">
         <v>21</v>
@@ -2051,7 +2375,7 @@
     </row>
     <row r="78" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="2">
         <v>22</v>
@@ -2060,7 +2384,7 @@
     </row>
     <row r="79" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="2">
         <v>23</v>
@@ -2069,7 +2393,7 @@
     </row>
     <row r="80" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="2">
         <v>24</v>
@@ -2078,7 +2402,7 @@
     </row>
     <row r="81" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="2">
         <v>25</v>
@@ -2087,7 +2411,7 @@
     </row>
     <row r="82" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="2">
         <v>26</v>
@@ -2096,7 +2420,7 @@
     </row>
     <row r="83" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
-      <c r="B83" s="9"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="2">
         <v>27</v>
@@ -2105,7 +2429,7 @@
     </row>
     <row r="84" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
-      <c r="B84" s="9"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="2">
         <v>28</v>
@@ -2114,7 +2438,7 @@
     </row>
     <row r="85" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="2">
         <v>29</v>
@@ -2123,7 +2447,7 @@
     </row>
     <row r="86" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="2">
         <v>30</v>
@@ -2132,7 +2456,7 @@
     </row>
     <row r="87" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
-      <c r="B87" s="9"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="2">
         <v>31</v>
@@ -2141,7 +2465,7 @@
     </row>
     <row r="88" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
-      <c r="B88" s="9"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="2">
         <v>32</v>
@@ -2150,7 +2474,7 @@
     </row>
     <row r="89" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="2">
         <v>33</v>
@@ -2159,7 +2483,7 @@
     </row>
     <row r="90" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
-      <c r="B90" s="9"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="2">
         <v>34</v>
@@ -2168,7 +2492,7 @@
     </row>
     <row r="91" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="2">
         <v>35</v>
@@ -2177,7 +2501,7 @@
     </row>
     <row r="92" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="2">
         <v>36</v>
@@ -2186,7 +2510,7 @@
     </row>
     <row r="93" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="2">
         <v>37</v>
@@ -2195,7 +2519,7 @@
     </row>
     <row r="94" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="2">
         <v>38</v>
@@ -2204,7 +2528,7 @@
     </row>
     <row r="95" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="2">
         <v>39</v>
@@ -2213,7 +2537,7 @@
     </row>
     <row r="96" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="2">
         <v>40</v>
@@ -2222,7 +2546,7 @@
     </row>
     <row r="97" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="2">
         <v>41</v>
@@ -2231,7 +2555,7 @@
     </row>
     <row r="98" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="2">
         <v>42</v>
@@ -2240,7 +2564,7 @@
     </row>
     <row r="99" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="2">
         <v>43</v>
@@ -2249,7 +2573,7 @@
     </row>
     <row r="100" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="2">
         <v>44</v>
@@ -2258,72 +2582,72 @@
     </row>
     <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
-      <c r="B102" s="9"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
-      <c r="B103" s="9"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
-      <c r="B104" s="9"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="2">
         <v>8</v>
@@ -2332,7 +2656,7 @@
     </row>
     <row r="109" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="2">
         <v>9</v>
@@ -2341,7 +2665,7 @@
     </row>
     <row r="110" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="2">
         <v>10</v>
@@ -2350,7 +2674,7 @@
     </row>
     <row r="111" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="2">
         <v>11</v>
@@ -2359,7 +2683,7 @@
     </row>
     <row r="112" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="2">
         <v>12</v>
@@ -2368,7 +2692,7 @@
     </row>
     <row r="113" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="2">
         <v>13</v>
@@ -2377,7 +2701,7 @@
     </row>
     <row r="114" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="2">
         <v>14</v>
@@ -2386,7 +2710,7 @@
     </row>
     <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="2">
         <v>15</v>
@@ -2395,7 +2719,7 @@
     </row>
     <row r="116" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="2">
         <v>16</v>
@@ -2404,7 +2728,7 @@
     </row>
     <row r="117" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="2">
         <v>17</v>
@@ -2413,7 +2737,7 @@
     </row>
     <row r="118" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="2">
         <v>18</v>
@@ -2422,7 +2746,7 @@
     </row>
     <row r="119" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="2">
         <v>19</v>
@@ -2431,7 +2755,7 @@
     </row>
     <row r="120" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="2">
         <v>20</v>
@@ -2440,7 +2764,7 @@
     </row>
     <row r="121" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="2">
         <v>21</v>
@@ -2449,7 +2773,7 @@
     </row>
     <row r="122" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="2">
         <v>22</v>
@@ -2458,7 +2782,7 @@
     </row>
     <row r="123" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="2">
         <v>23</v>
@@ -2467,7 +2791,7 @@
     </row>
     <row r="124" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="2">
         <v>24</v>
@@ -2476,7 +2800,7 @@
     </row>
     <row r="125" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
-      <c r="B125" s="9"/>
+      <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="2">
         <v>25</v>
@@ -2485,7 +2809,7 @@
     </row>
     <row r="126" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
-      <c r="B126" s="9"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="2">
         <v>26</v>
@@ -2494,7 +2818,7 @@
     </row>
     <row r="127" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="2">
         <v>27</v>
@@ -2503,7 +2827,7 @@
     </row>
     <row r="128" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
-      <c r="B128" s="9"/>
+      <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="2">
         <v>28</v>
@@ -2512,7 +2836,7 @@
     </row>
     <row r="129" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
-      <c r="B129" s="9"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="2">
         <v>29</v>
@@ -2521,7 +2845,7 @@
     </row>
     <row r="130" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
-      <c r="B130" s="9"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="2">
         <v>30</v>
@@ -2530,7 +2854,7 @@
     </row>
     <row r="131" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="2">
         <v>31</v>
@@ -2539,7 +2863,7 @@
     </row>
     <row r="132" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
-      <c r="B132" s="9"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="2">
         <v>32</v>
@@ -2548,7 +2872,7 @@
     </row>
     <row r="133" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
-      <c r="B133" s="9"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="2">
         <v>33</v>
@@ -2557,7 +2881,7 @@
     </row>
     <row r="134" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
-      <c r="B134" s="9"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="2">
         <v>34</v>
@@ -2566,7 +2890,7 @@
     </row>
     <row r="135" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="2">
         <v>35</v>
@@ -2575,7 +2899,7 @@
     </row>
     <row r="136" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
-      <c r="B136" s="9"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="2">
         <v>36</v>
@@ -2584,7 +2908,7 @@
     </row>
     <row r="137" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
-      <c r="B137" s="9"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="2">
         <v>37</v>
@@ -2593,7 +2917,7 @@
     </row>
     <row r="138" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
-      <c r="B138" s="9"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="2">
         <v>38</v>
@@ -2602,7 +2926,7 @@
     </row>
     <row r="139" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
-      <c r="B139" s="9"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="2">
         <v>39</v>
@@ -2611,7 +2935,7 @@
     </row>
     <row r="140" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
-      <c r="B140" s="9"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="2">
         <v>40</v>
@@ -2620,7 +2944,7 @@
     </row>
     <row r="141" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
-      <c r="B141" s="9"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="2">
         <v>41</v>
@@ -2629,7 +2953,7 @@
     </row>
     <row r="142" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
-      <c r="B142" s="9"/>
+      <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="2">
         <v>42</v>
@@ -2638,7 +2962,7 @@
     </row>
     <row r="143" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
-      <c r="B143" s="9"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="2">
         <v>43</v>
@@ -2647,7 +2971,7 @@
     </row>
     <row r="144" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
-      <c r="B144" s="9"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="2">
         <v>44</v>
@@ -2656,7 +2980,7 @@
     </row>
     <row r="145" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
-      <c r="B145" s="9"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="2">
         <v>45</v>
@@ -2665,7 +2989,7 @@
     </row>
     <row r="146" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
-      <c r="B146" s="9"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="2">
         <v>46</v>
@@ -2674,7 +2998,7 @@
     </row>
     <row r="147" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
-      <c r="B147" s="9"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="2">
         <v>47</v>
@@ -2683,7 +3007,7 @@
     </row>
     <row r="148" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="2">
         <v>48</v>
@@ -2692,7 +3016,7 @@
     </row>
     <row r="149" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
-      <c r="B149" s="9"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="2">
         <v>49</v>
@@ -2701,7 +3025,7 @@
     </row>
     <row r="150" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="2">
         <v>50</v>
@@ -2710,7 +3034,7 @@
     </row>
     <row r="151" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
-      <c r="B151" s="9"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="2">
         <v>51</v>
@@ -2719,7 +3043,7 @@
     </row>
     <row r="152" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
-      <c r="B152" s="9"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="2">
         <v>52</v>
@@ -2728,7 +3052,7 @@
     </row>
     <row r="153" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="2">
         <v>53</v>
@@ -2737,7 +3061,7 @@
     </row>
     <row r="154" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
-      <c r="B154" s="9"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="2">
         <v>54</v>
@@ -2746,7 +3070,7 @@
     </row>
     <row r="155" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
-      <c r="B155" s="9"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="2">
         <v>55</v>
@@ -2755,7 +3079,7 @@
     </row>
     <row r="156" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
-      <c r="B156" s="9"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="2">
         <v>56</v>
@@ -2764,7 +3088,7 @@
     </row>
     <row r="157" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="2">
         <v>57</v>
@@ -2773,7 +3097,7 @@
     </row>
     <row r="158" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
-      <c r="B158" s="9"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="2">
         <v>58</v>
@@ -2782,7 +3106,7 @@
     </row>
     <row r="159" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
-      <c r="B159" s="9"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="2">
         <v>59</v>
@@ -2791,7 +3115,7 @@
     </row>
     <row r="160" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
-      <c r="B160" s="9"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="2">
         <v>60</v>
@@ -2800,7 +3124,7 @@
     </row>
     <row r="161" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
-      <c r="B161" s="9"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="2">
         <v>61</v>
@@ -2809,7 +3133,7 @@
     </row>
     <row r="162" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
-      <c r="B162" s="9"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="2">
         <v>62</v>
@@ -2818,940 +3142,1492 @@
     </row>
     <row r="163" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
-      <c r="B163" s="9"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>168</v>
+        <v>69</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
-      <c r="B164" s="9"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>169</v>
+        <v>70</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
-      <c r="B165" s="9"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>170</v>
+        <v>71</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
-      <c r="B166" s="9"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>171</v>
+        <v>72</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>172</v>
+        <v>73</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>173</v>
+        <v>74</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
-      <c r="B169" s="9"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>174</v>
+        <v>75</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
-      <c r="B170" s="9"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>175</v>
+        <v>76</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
-      <c r="B171" s="9"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>176</v>
+        <v>77</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
-      <c r="B172" s="9"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>177</v>
+        <v>78</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
-      <c r="B173" s="9"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>178</v>
+        <v>79</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
-      <c r="B174" s="9"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>179</v>
+        <v>80</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
-      <c r="B175" s="9"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
-      <c r="B176" s="9"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>181</v>
+        <v>82</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>182</v>
+        <v>83</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
-      <c r="B178" s="9"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>183</v>
+        <v>84</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
-      <c r="B179" s="9"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>184</v>
+        <v>85</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
-      <c r="B180" s="9"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>185</v>
+        <v>86</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
-      <c r="B181" s="9"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>186</v>
+        <v>87</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
-      <c r="B182" s="9"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>187</v>
+        <v>88</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
-      <c r="B183" s="9"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>188</v>
+        <v>89</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
-      <c r="B184" s="9"/>
+      <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>189</v>
+        <v>90</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
-      <c r="B185" s="9"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>167</v>
+        <v>91</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
-      <c r="B186" s="9"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>166</v>
+        <v>92</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>165</v>
+        <v>93</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>163</v>
+        <v>95</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
-      <c r="B191" s="9"/>
+      <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>161</v>
+        <v>108</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
-      <c r="B192" s="9"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>160</v>
+        <v>109</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
-      <c r="B193" s="9"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="2">
         <v>31</v>
       </c>
-      <c r="E193" s="2"/>
+      <c r="E193" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
-      <c r="B194" s="9"/>
+      <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="2">
         <v>32</v>
       </c>
-      <c r="E194" s="2"/>
+      <c r="E194" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="195" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
-      <c r="B195" s="9"/>
+      <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="2">
         <v>33</v>
       </c>
-      <c r="E195" s="2"/>
+      <c r="E195" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="196" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
-      <c r="B196" s="9"/>
+      <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="2">
         <v>34</v>
       </c>
-      <c r="E196" s="2"/>
+      <c r="E196" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="197" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
-      <c r="B197" s="9"/>
+      <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="2">
         <v>35</v>
       </c>
-      <c r="E197" s="2"/>
+      <c r="E197" s="6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="198" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
-      <c r="B198" s="9"/>
+      <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="2">
         <v>36</v>
       </c>
-      <c r="E198" s="2"/>
+      <c r="E198" s="6" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="199" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
-      <c r="B199" s="9"/>
+      <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="2">
         <v>37</v>
       </c>
-      <c r="E199" s="2"/>
+      <c r="E199" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="200" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
-      <c r="B200" s="9"/>
+      <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="2">
         <v>38</v>
       </c>
-      <c r="E200" s="2"/>
+      <c r="E200" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="201" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
-      <c r="B201" s="9"/>
+      <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="2">
         <v>39</v>
       </c>
-      <c r="E201" s="2"/>
+      <c r="E201" s="6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="202" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="7"/>
-      <c r="B202" s="9"/>
+      <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="2">
         <v>40</v>
       </c>
-      <c r="E202" s="2"/>
+      <c r="E202" s="6" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="203" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="7"/>
-      <c r="B203" s="9"/>
+      <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="2">
         <v>41</v>
       </c>
-      <c r="E203" s="2"/>
+      <c r="E203" s="6" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="204" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7"/>
-      <c r="B204" s="9"/>
+      <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="2">
         <v>42</v>
       </c>
-      <c r="E204" s="2"/>
+      <c r="E204" s="6" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="205" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="7"/>
-      <c r="B205" s="9"/>
+      <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="2">
         <v>43</v>
       </c>
-      <c r="E205" s="2"/>
+      <c r="E205" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="206" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="7"/>
-      <c r="B206" s="9"/>
+      <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="2">
         <v>44</v>
       </c>
-      <c r="E206" s="2"/>
+      <c r="E206" s="6" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="7"/>
-      <c r="B207" s="9"/>
+      <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="2">
         <v>45</v>
       </c>
-      <c r="E207" s="2"/>
+      <c r="E207" s="6" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="7"/>
-      <c r="B208" s="9"/>
+      <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="2">
         <v>46</v>
       </c>
-      <c r="E208" s="2"/>
+      <c r="E208" s="6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7"/>
-      <c r="B209" s="9"/>
+      <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="2">
         <v>47</v>
       </c>
-      <c r="E209" s="2"/>
+      <c r="E209" s="6" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="7"/>
-      <c r="B210" s="9"/>
+      <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="2">
         <v>48</v>
       </c>
-      <c r="E210" s="2"/>
+      <c r="E210" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="7"/>
-      <c r="B211" s="9"/>
+      <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="2">
         <v>49</v>
       </c>
-      <c r="E211" s="2"/>
+      <c r="E211" s="6" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="7"/>
-      <c r="B212" s="9"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="2">
         <v>50</v>
       </c>
-      <c r="E212" s="2"/>
+      <c r="E212" s="6" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
-      <c r="B213" s="9"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="2">
         <v>51</v>
       </c>
-      <c r="E213" s="2"/>
+      <c r="E213" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="7"/>
-      <c r="B214" s="9"/>
+      <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="2">
         <v>52</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E214" s="6" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="7"/>
-      <c r="B215" s="9"/>
+      <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="2">
         <v>53</v>
       </c>
-      <c r="E215" s="2"/>
+      <c r="E215" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7"/>
-      <c r="B216" s="9"/>
+      <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="2">
         <v>54</v>
       </c>
-      <c r="E216" s="2"/>
+      <c r="E216" s="6" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="7"/>
-      <c r="B217" s="9"/>
+      <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="2">
         <v>55</v>
       </c>
-      <c r="E217" s="2"/>
+      <c r="E217" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="7"/>
-      <c r="B218" s="9"/>
+      <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="2">
         <v>56</v>
       </c>
-      <c r="E218" s="2"/>
+      <c r="E218" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="7"/>
-      <c r="B219" s="9"/>
+      <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="2">
         <v>57</v>
       </c>
-      <c r="E219" s="2"/>
+      <c r="E219" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="7"/>
-      <c r="B220" s="9"/>
+      <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="2">
         <v>58</v>
       </c>
-      <c r="E220" s="2"/>
+      <c r="E220" s="6" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
-      <c r="B221" s="9"/>
+      <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="2">
         <v>59</v>
       </c>
-      <c r="E221" s="2"/>
+      <c r="E221" s="6" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="7"/>
-      <c r="B222" s="9"/>
+      <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="2">
         <v>60</v>
       </c>
-      <c r="E222" s="2"/>
+      <c r="E222" s="6" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="7"/>
-      <c r="B223" s="9"/>
+      <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="2">
         <v>61</v>
       </c>
-      <c r="E223" s="2"/>
+      <c r="E223" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="7"/>
-      <c r="B224" s="9"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="2">
         <v>62</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="7"/>
-      <c r="B225" s="9"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="2">
         <v>63</v>
       </c>
-      <c r="E225" s="2"/>
+      <c r="E225" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="7"/>
-      <c r="B226" s="9"/>
+      <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="2">
         <v>64</v>
       </c>
-      <c r="E226" s="2"/>
+      <c r="E226" s="6" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="7"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="2">
         <v>65</v>
       </c>
-      <c r="E227" s="2"/>
+      <c r="E227" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="7"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="2">
         <v>66</v>
       </c>
-      <c r="E228" s="2"/>
+      <c r="E228" s="6" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="7"/>
-      <c r="B229" s="9"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="2">
         <v>67</v>
       </c>
-      <c r="E229" s="2"/>
+      <c r="E229" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="7"/>
-      <c r="B230" s="9"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="2">
         <v>68</v>
       </c>
-      <c r="E230" s="2"/>
+      <c r="E230" s="6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="7"/>
-      <c r="B231" s="9"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="7"/>
       <c r="D231" s="2">
         <v>69</v>
       </c>
-      <c r="E231" s="2"/>
+      <c r="E231" s="6" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="7"/>
-      <c r="B232" s="9"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="2">
         <v>70</v>
       </c>
-      <c r="E232" s="2"/>
+      <c r="E232" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="7"/>
-      <c r="B233" s="9"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="2">
         <v>71</v>
       </c>
-      <c r="E233" s="2"/>
+      <c r="E233" s="6" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="7"/>
-      <c r="B234" s="9"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="2">
         <v>72</v>
       </c>
-      <c r="E234" s="2"/>
+      <c r="E234" s="6" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="7"/>
-      <c r="B235" s="9"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="7"/>
       <c r="D235" s="2">
         <v>73</v>
       </c>
-      <c r="E235" s="2"/>
+      <c r="E235" s="6" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="7"/>
-      <c r="B236" s="9"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="2">
         <v>74</v>
       </c>
-      <c r="E236" s="2"/>
+      <c r="E236" s="6" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="7"/>
-      <c r="B237" s="9"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="7"/>
       <c r="D237" s="2">
         <v>75</v>
       </c>
-      <c r="E237" s="2"/>
+      <c r="E237" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="7"/>
-      <c r="B238" s="9"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="7"/>
       <c r="D238" s="2">
         <v>76</v>
       </c>
-      <c r="E238" s="2"/>
+      <c r="E238" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="7"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="2">
         <v>77</v>
       </c>
-      <c r="E239" s="2"/>
+      <c r="E239" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="7"/>
-      <c r="B240" s="9"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="7"/>
       <c r="D240" s="2">
         <v>78</v>
       </c>
-      <c r="E240" s="2"/>
+      <c r="E240" s="6" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="7"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="2">
         <v>1</v>
       </c>
-      <c r="E241" s="2"/>
+      <c r="E241" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="7"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="2">
         <v>2</v>
       </c>
-      <c r="E242" s="2"/>
+      <c r="E242" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="7"/>
-      <c r="B243" s="9"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="2">
         <v>3</v>
       </c>
-      <c r="E243" s="2"/>
+      <c r="E243" s="6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="7"/>
-      <c r="B244" s="9"/>
+      <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="2">
         <v>4</v>
       </c>
-      <c r="E244" s="2"/>
+      <c r="E244" s="6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="7"/>
-      <c r="B245" s="9"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="2">
         <v>5</v>
       </c>
-      <c r="E245" s="2"/>
+      <c r="E245" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="7"/>
-      <c r="B246" s="10"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="2">
         <v>6</v>
       </c>
-      <c r="E246" s="2"/>
+      <c r="E246" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="247" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="7"/>
-      <c r="B247" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
       <c r="D247" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E248" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="7"/>
-      <c r="B249" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
       <c r="D249" s="2" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
-      <c r="D250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="7"/>
-      <c r="B251" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="2"/>
       <c r="E251" s="6" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
-      <c r="D252" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="7"/>
-      <c r="B253" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="2"/>
       <c r="E253" s="6" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="2"/>
+      <c r="E254" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="7"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="7"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="7"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="7"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="7"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="7"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="7"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="7"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="7"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="7"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A274" s="7"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="7"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A276" s="7"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A277" s="7"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="7"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="7"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="7"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="7"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="7"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="7"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A286" s="7"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="7"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A288" s="7"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A289" s="7"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A290" s="7"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A291" s="7"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="7"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A293" s="7"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="7"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A295" s="7"/>
+      <c r="B295" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A296" s="7"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="7"/>
+      <c r="B297" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A298" s="7"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A299" s="7"/>
+      <c r="B299" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A300" s="7"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A301" s="7"/>
+      <c r="B301" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="7"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E254" s="2"/>
+      <c r="E302" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="A2:A254"/>
-    <mergeCell ref="B247:B248"/>
+  <mergeCells count="17">
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="C163:C294"/>
+    <mergeCell ref="B2:B294"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="A2:A302"/>
+    <mergeCell ref="B295:B296"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="B301:B302"/>
     <mergeCell ref="C17:C56"/>
     <mergeCell ref="C57:C100"/>
     <mergeCell ref="C101:C162"/>
-    <mergeCell ref="C163:C240"/>
-    <mergeCell ref="C241:C246"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B2:B246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E247" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
+    <hyperlink ref="E248" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
+    <hyperlink ref="E249" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
+    <hyperlink ref="E250:E253" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
+    <hyperlink ref="E254:E270" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
+    <hyperlink ref="E271:E294" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{D9CA3CEB-0821-4E03-84BB-BF3A96AA410B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -1235,10 +1235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,7 +1557,7 @@
   <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E302" sqref="A1:E302"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4600,11 +4596,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C163:C294"/>
-    <mergeCell ref="B2:B294"/>
-    <mergeCell ref="C299:C300"/>
     <mergeCell ref="C301:C302"/>
     <mergeCell ref="A2:A302"/>
     <mergeCell ref="B295:B296"/>
@@ -4617,6 +4608,11 @@
     <mergeCell ref="C57:C100"/>
     <mergeCell ref="C101:C162"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="C163:C294"/>
+    <mergeCell ref="B2:B294"/>
+    <mergeCell ref="C299:C300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBEDAD70-0DF8-4367-8274-B8FC543168CF}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D15ED1-BED7-431F-AAAA-BC81542BBBAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="298">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">https://nicktsai88.github.io/Chinese3-L7/        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">第一回-國二上張釋之執法 (120個成語) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33 &lt;菜根譚&gt;選: 待人處事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://nicktsai88.github.io/PushChineseClassical-034</t>
   </si>
   <si>
@@ -1127,6 +1119,30 @@
   </si>
   <si>
     <t>https://nicktsai88.github.io/ChineseIdiom2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33&lt;菜根譚&gt;選: 待人處事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71書感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Chinese3-L7/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Chinese3-L8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Citizen3-L4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4 我國的中央政府4-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1157,6 +1173,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1166,7 +1191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1189,13 +1214,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,9 +1285,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1235,6 +1313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E308" sqref="E308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1573,16 +1655,16 @@
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1593,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1609,7 +1691,9 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
@@ -1618,7 +1702,7 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
@@ -1627,7 +1711,7 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
@@ -1636,7 +1720,7 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
@@ -1645,10 +1729,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1656,9 +1740,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
@@ -1667,7 +1751,7 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
@@ -1676,17 +1760,17 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1698,7 +1782,7 @@
       <c r="D12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
@@ -1707,7 +1791,7 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
@@ -1716,7 +1800,7 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
@@ -1725,7 +1809,7 @@
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
@@ -1746,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1757,7 +1841,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1768,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1779,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1790,7 +1874,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1801,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1812,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1823,7 +1907,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1834,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1845,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1856,7 +1940,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1867,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1878,7 +1962,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1889,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1900,7 +1984,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1911,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1922,7 +2006,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1933,7 +2017,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1944,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1955,7 +2039,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1966,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1977,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1988,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1999,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2010,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2021,7 +2105,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2032,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2043,7 +2127,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2054,7 +2138,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2076,7 +2160,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2087,7 +2171,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2098,7 +2182,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2109,7 +2193,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2120,7 +2204,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2131,7 +2215,7 @@
         <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2142,7 +2226,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2153,7 +2237,7 @@
         <v>59</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2164,7 +2248,7 @@
         <v>60</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2175,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3146,7 +3230,7 @@
         <v>69</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3157,7 +3241,7 @@
         <v>70</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3168,7 +3252,7 @@
         <v>71</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3179,7 +3263,7 @@
         <v>72</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3190,7 +3274,7 @@
         <v>73</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3201,7 +3285,7 @@
         <v>74</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3212,7 +3296,7 @@
         <v>75</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3223,7 +3307,7 @@
         <v>76</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3234,7 +3318,7 @@
         <v>77</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3245,7 +3329,7 @@
         <v>78</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3256,7 +3340,7 @@
         <v>79</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3267,7 +3351,7 @@
         <v>80</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3278,7 +3362,7 @@
         <v>81</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3289,7 +3373,7 @@
         <v>82</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3300,7 +3384,7 @@
         <v>83</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3311,7 +3395,7 @@
         <v>84</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3322,7 +3406,7 @@
         <v>85</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3333,7 +3417,7 @@
         <v>86</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3344,7 +3428,7 @@
         <v>87</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3355,7 +3439,7 @@
         <v>88</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3366,7 +3450,7 @@
         <v>89</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3377,7 +3461,7 @@
         <v>90</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3388,7 +3472,7 @@
         <v>91</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3399,7 +3483,7 @@
         <v>92</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3410,7 +3494,7 @@
         <v>93</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3421,7 +3505,7 @@
         <v>94</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3432,7 +3516,7 @@
         <v>95</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3443,7 +3527,7 @@
         <v>96</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3454,7 +3538,7 @@
         <v>108</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3465,7 +3549,7 @@
         <v>109</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3476,7 +3560,7 @@
         <v>31</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3487,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3498,7 +3582,7 @@
         <v>33</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3509,7 +3593,7 @@
         <v>34</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3520,7 +3604,7 @@
         <v>35</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3531,7 +3615,7 @@
         <v>36</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3542,7 +3626,7 @@
         <v>37</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3553,7 +3637,7 @@
         <v>38</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3564,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3575,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3586,7 +3670,7 @@
         <v>41</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3597,7 +3681,7 @@
         <v>42</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3608,7 +3692,7 @@
         <v>43</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3619,7 +3703,7 @@
         <v>44</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3630,7 +3714,7 @@
         <v>45</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3641,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3652,7 +3736,7 @@
         <v>47</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3663,7 +3747,7 @@
         <v>48</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3674,7 +3758,7 @@
         <v>49</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3685,7 +3769,7 @@
         <v>50</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3696,7 +3780,7 @@
         <v>51</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3707,7 +3791,7 @@
         <v>52</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3718,7 +3802,7 @@
         <v>53</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3729,7 +3813,7 @@
         <v>54</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3740,7 +3824,7 @@
         <v>55</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3751,7 +3835,7 @@
         <v>56</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3762,7 +3846,7 @@
         <v>57</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3773,7 +3857,7 @@
         <v>58</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3784,7 +3868,7 @@
         <v>59</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3795,7 +3879,7 @@
         <v>60</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3806,7 +3890,7 @@
         <v>61</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3817,7 +3901,7 @@
         <v>62</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3828,7 +3912,7 @@
         <v>63</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3839,7 +3923,7 @@
         <v>64</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3850,7 +3934,7 @@
         <v>65</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3861,7 +3945,7 @@
         <v>66</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3872,7 +3956,7 @@
         <v>67</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3883,7 +3967,7 @@
         <v>68</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3894,7 +3978,7 @@
         <v>69</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3905,7 +3989,7 @@
         <v>70</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3916,7 +4000,7 @@
         <v>71</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3927,7 +4011,7 @@
         <v>72</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3938,7 +4022,7 @@
         <v>73</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3949,7 +4033,7 @@
         <v>74</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3960,7 +4044,7 @@
         <v>75</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3971,7 +4055,7 @@
         <v>76</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3982,7 +4066,7 @@
         <v>77</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3993,7 +4077,7 @@
         <v>78</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4004,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4015,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4026,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4037,7 +4121,7 @@
         <v>4</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4048,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4059,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4067,10 +4151,10 @@
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4078,10 +4162,10 @@
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4089,10 +4173,10 @@
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="2" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4101,7 +4185,7 @@
       <c r="C250" s="7"/>
       <c r="D250" s="2"/>
       <c r="E250" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4110,7 +4194,7 @@
       <c r="C251" s="7"/>
       <c r="D251" s="2"/>
       <c r="E251" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4119,7 +4203,7 @@
       <c r="C252" s="7"/>
       <c r="D252" s="2"/>
       <c r="E252" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4128,7 +4212,7 @@
       <c r="C253" s="7"/>
       <c r="D253" s="2"/>
       <c r="E253" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4137,7 +4221,7 @@
       <c r="C254" s="7"/>
       <c r="D254" s="2"/>
       <c r="E254" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4146,7 +4230,7 @@
       <c r="C255" s="7"/>
       <c r="D255" s="2"/>
       <c r="E255" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4155,7 +4239,7 @@
       <c r="C256" s="7"/>
       <c r="D256" s="2"/>
       <c r="E256" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4164,7 +4248,7 @@
       <c r="C257" s="7"/>
       <c r="D257" s="2"/>
       <c r="E257" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4173,7 +4257,7 @@
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
       <c r="E258" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4182,7 +4266,7 @@
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
       <c r="E259" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4191,7 +4275,7 @@
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
       <c r="E260" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4200,7 +4284,7 @@
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
       <c r="E261" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4209,7 +4293,7 @@
       <c r="C262" s="7"/>
       <c r="D262" s="2"/>
       <c r="E262" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4218,7 +4302,7 @@
       <c r="C263" s="7"/>
       <c r="D263" s="2"/>
       <c r="E263" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4227,7 +4311,7 @@
       <c r="C264" s="7"/>
       <c r="D264" s="2"/>
       <c r="E264" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4236,7 +4320,7 @@
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
       <c r="E265" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4245,7 +4329,7 @@
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
       <c r="E266" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4254,7 +4338,7 @@
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
       <c r="E267" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4263,7 +4347,7 @@
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
       <c r="E268" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4272,7 +4356,7 @@
       <c r="C269" s="7"/>
       <c r="D269" s="2"/>
       <c r="E269" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4281,7 +4365,7 @@
       <c r="C270" s="7"/>
       <c r="D270" s="2"/>
       <c r="E270" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4290,7 +4374,7 @@
       <c r="C271" s="7"/>
       <c r="D271" s="2"/>
       <c r="E271" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4299,7 +4383,7 @@
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
       <c r="E272" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4308,7 +4392,7 @@
       <c r="C273" s="7"/>
       <c r="D273" s="2"/>
       <c r="E273" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4317,7 +4401,7 @@
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4326,7 +4410,7 @@
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4335,7 +4419,7 @@
       <c r="C276" s="7"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4344,7 +4428,7 @@
       <c r="C277" s="7"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4353,7 +4437,7 @@
       <c r="C278" s="7"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4362,7 +4446,7 @@
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4371,7 +4455,7 @@
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4380,7 +4464,7 @@
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4389,7 +4473,7 @@
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4398,7 +4482,7 @@
       <c r="C283" s="7"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4407,7 +4491,7 @@
       <c r="C284" s="7"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4416,7 +4500,7 @@
       <c r="C285" s="7"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4425,16 +4509,18 @@
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E287" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4443,7 +4529,7 @@
       <c r="C288" s="7"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4452,7 +4538,7 @@
       <c r="C289" s="7"/>
       <c r="D289" s="2"/>
       <c r="E289" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4461,7 +4547,7 @@
       <c r="C290" s="7"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4470,7 +4556,7 @@
       <c r="C291" s="7"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4479,7 +4565,7 @@
       <c r="C292" s="7"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4488,7 +4574,7 @@
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4497,7 +4583,7 @@
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4572,38 +4658,50 @@
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="7"/>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>107</v>
+        <v>297</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
       <c r="D302" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A303" s="7"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E302" s="2"/>
+      <c r="E303" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="A2:A302"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="B301:B303"/>
+    <mergeCell ref="A2:A303"/>
     <mergeCell ref="B295:B296"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="B297:B298"/>
     <mergeCell ref="B299:B300"/>
-    <mergeCell ref="B301:B302"/>
     <mergeCell ref="C17:C56"/>
     <mergeCell ref="C57:C100"/>
     <mergeCell ref="C101:C162"/>
@@ -4612,7 +4710,6 @@
     <mergeCell ref="C297:C298"/>
     <mergeCell ref="C163:C294"/>
     <mergeCell ref="B2:B294"/>
-    <mergeCell ref="C299:C300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4622,7 +4719,9 @@
     <hyperlink ref="E250:E253" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
     <hyperlink ref="E254:E270" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
     <hyperlink ref="E271:E294" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{D9CA3CEB-0821-4E03-84BB-BF3A96AA410B}"/>
+    <hyperlink ref="E302" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
+    <hyperlink ref="E301" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D15ED1-BED7-431F-AAAA-BC81542BBBAE}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023167F8-506B-4CF4-ACE1-FDB8E73F9C21}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="299">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二回-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31齊人攫金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,6 +1139,14 @@
   </si>
   <si>
     <t>L4 我國的中央政府4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/ChineseIdiom3/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二回-國二上尋找失落的水源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,11 +1286,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1300,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1638,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E308" sqref="E308"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1668,64 +1675,64 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>294</v>
+      <c r="E2" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1736,47 +1743,49 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1785,45 +1794,45 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1834,9 +1843,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1845,9 +1854,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1856,9 +1865,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1867,9 +1876,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1878,9 +1887,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1889,9 +1898,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1900,9 +1909,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1911,9 +1920,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1922,9 +1931,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1933,9 +1942,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1944,9 +1953,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1955,9 +1964,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1966,9 +1975,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1977,9 +1986,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1988,9 +1997,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1999,9 +2008,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
@@ -2010,9 +2019,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2021,9 +2030,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="2" t="s">
         <v>40</v>
       </c>
@@ -2032,9 +2041,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2043,9 +2052,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="2" t="s">
         <v>42</v>
       </c>
@@ -2054,9 +2063,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2065,9 +2074,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
         <v>44</v>
       </c>
@@ -2076,9 +2085,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
@@ -2087,9 +2096,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2098,9 +2107,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
         <v>47</v>
       </c>
@@ -2109,9 +2118,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
         <v>48</v>
       </c>
@@ -2120,9 +2129,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2131,9 +2140,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2142,9 +2151,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
         <v>51</v>
       </c>
@@ -2153,9 +2162,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2164,9 +2173,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2175,9 +2184,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
         <v>54</v>
       </c>
@@ -2186,9 +2195,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="2" t="s">
         <v>55</v>
       </c>
@@ -2197,9 +2206,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
         <v>56</v>
       </c>
@@ -2208,9 +2217,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
         <v>57</v>
       </c>
@@ -2219,9 +2228,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="2" t="s">
         <v>58</v>
       </c>
@@ -2230,9 +2239,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
@@ -2241,9 +2250,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="2" t="s">
         <v>60</v>
       </c>
@@ -2252,9 +2261,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2263,9 +2272,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D57" s="2">
@@ -2274,396 +2283,396 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="2">
         <v>2</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="2">
         <v>3</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="2">
         <v>4</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="2">
         <v>5</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="2">
         <v>6</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="2">
         <v>7</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="2">
         <v>8</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="2">
         <v>9</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="2">
         <v>10</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="2">
         <v>11</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="2">
         <v>12</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="2">
         <v>13</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="2">
         <v>14</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="2">
         <v>15</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="2">
         <v>16</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="2">
         <v>17</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="2">
         <v>18</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="2">
         <v>19</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="2">
         <v>20</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="2">
         <v>21</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="2">
         <v>22</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="2">
         <v>23</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="2">
         <v>24</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="2">
         <v>25</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="2">
         <v>26</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="2">
         <v>27</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="2">
         <v>28</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="2">
         <v>29</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="2">
         <v>30</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
       <c r="D87" s="2">
         <v>31</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="2">
         <v>32</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="2">
         <v>33</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="2">
         <v>34</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="2">
         <v>35</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
       <c r="D92" s="2">
         <v>36</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="2">
         <v>37</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="2">
         <v>38</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="2">
         <v>39</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="2">
         <v>40</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="2">
         <v>41</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="2">
         <v>42</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="2">
         <v>43</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="2">
         <v>44</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -2672,558 +2681,558 @@
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
       <c r="D102" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
       <c r="D103" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
       <c r="D104" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
       <c r="D105" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
       <c r="D106" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
       <c r="D107" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="2">
         <v>8</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
       <c r="D109" s="2">
         <v>9</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
       <c r="D110" s="2">
         <v>10</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
       <c r="D111" s="2">
         <v>11</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
       <c r="D112" s="2">
         <v>12</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
       <c r="D113" s="2">
         <v>13</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
       <c r="D114" s="2">
         <v>14</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
       <c r="D115" s="2">
         <v>15</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
       <c r="D116" s="2">
         <v>16</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
       <c r="D117" s="2">
         <v>17</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
       <c r="D118" s="2">
         <v>18</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
       <c r="D119" s="2">
         <v>19</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="2">
         <v>20</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
       <c r="D121" s="2">
         <v>21</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
       <c r="D122" s="2">
         <v>22</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
       <c r="D123" s="2">
         <v>23</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
       <c r="D124" s="2">
         <v>24</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
       <c r="D125" s="2">
         <v>25</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
       <c r="D126" s="2">
         <v>26</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
       <c r="D127" s="2">
         <v>27</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="2">
         <v>28</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
       <c r="D129" s="2">
         <v>29</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
       <c r="D130" s="2">
         <v>30</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="2">
         <v>31</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
       <c r="D132" s="2">
         <v>32</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
       <c r="D133" s="2">
         <v>33</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
       <c r="D134" s="2">
         <v>34</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
       <c r="D135" s="2">
         <v>35</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="2">
         <v>36</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
       <c r="D137" s="2">
         <v>37</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
       <c r="D138" s="2">
         <v>38</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="2">
         <v>39</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
       <c r="D140" s="2">
         <v>40</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
       <c r="D141" s="2">
         <v>41</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
       <c r="D142" s="2">
         <v>42</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
       <c r="D143" s="2">
         <v>43</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
       <c r="D144" s="2">
         <v>44</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
       <c r="D145" s="2">
         <v>45</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
       <c r="D146" s="2">
         <v>46</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
       <c r="D147" s="2">
         <v>47</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
       <c r="D148" s="2">
         <v>48</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
       <c r="D149" s="2">
         <v>49</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
       <c r="D150" s="2">
         <v>50</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
       <c r="D151" s="2">
         <v>51</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
       <c r="D152" s="2">
         <v>52</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
       <c r="D153" s="2">
         <v>53</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
       <c r="D154" s="2">
         <v>54</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
       <c r="D155" s="2">
         <v>55</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
       <c r="D156" s="2">
         <v>56</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
       <c r="D157" s="2">
         <v>57</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
       <c r="D158" s="2">
         <v>58</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
       <c r="D159" s="2">
         <v>59</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
       <c r="D160" s="2">
         <v>60</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
       <c r="D161" s="2">
         <v>61</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
       <c r="D162" s="2">
         <v>62</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7" t="s">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -3234,9 +3243,9 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
       <c r="D164" s="2" t="s">
         <v>70</v>
       </c>
@@ -3245,9 +3254,9 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
       <c r="D165" s="2" t="s">
         <v>71</v>
       </c>
@@ -3256,9 +3265,9 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
       <c r="D166" s="2" t="s">
         <v>72</v>
       </c>
@@ -3267,9 +3276,9 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
       <c r="D167" s="2" t="s">
         <v>73</v>
       </c>
@@ -3278,9 +3287,9 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
       <c r="D168" s="2" t="s">
         <v>74</v>
       </c>
@@ -3289,9 +3298,9 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
       <c r="D169" s="2" t="s">
         <v>75</v>
       </c>
@@ -3300,9 +3309,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
       <c r="D170" s="2" t="s">
         <v>76</v>
       </c>
@@ -3311,9 +3320,9 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
       <c r="D171" s="2" t="s">
         <v>77</v>
       </c>
@@ -3322,9 +3331,9 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
       <c r="D172" s="2" t="s">
         <v>78</v>
       </c>
@@ -3333,9 +3342,9 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
       <c r="D173" s="2" t="s">
         <v>79</v>
       </c>
@@ -3344,9 +3353,9 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
       <c r="D174" s="2" t="s">
         <v>80</v>
       </c>
@@ -3355,9 +3364,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
       <c r="D175" s="2" t="s">
         <v>81</v>
       </c>
@@ -3366,9 +3375,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
       <c r="D176" s="2" t="s">
         <v>82</v>
       </c>
@@ -3377,9 +3386,9 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
       <c r="D177" s="2" t="s">
         <v>83</v>
       </c>
@@ -3388,9 +3397,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
       <c r="D178" s="2" t="s">
         <v>84</v>
       </c>
@@ -3399,9 +3408,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
       <c r="D179" s="2" t="s">
         <v>85</v>
       </c>
@@ -3410,9 +3419,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
       <c r="D180" s="2" t="s">
         <v>86</v>
       </c>
@@ -3421,9 +3430,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
       <c r="D181" s="2" t="s">
         <v>87</v>
       </c>
@@ -3432,9 +3441,9 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
       <c r="D182" s="2" t="s">
         <v>88</v>
       </c>
@@ -3443,9 +3452,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
       <c r="D183" s="2" t="s">
         <v>89</v>
       </c>
@@ -3454,9 +3463,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
       <c r="D184" s="2" t="s">
         <v>90</v>
       </c>
@@ -3465,9 +3474,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
       <c r="D185" s="2" t="s">
         <v>91</v>
       </c>
@@ -3476,9 +3485,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
       <c r="D186" s="2" t="s">
         <v>92</v>
       </c>
@@ -3487,9 +3496,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
       <c r="D187" s="2" t="s">
         <v>93</v>
       </c>
@@ -3498,9 +3507,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
       <c r="D188" s="2" t="s">
         <v>94</v>
       </c>
@@ -3509,9 +3518,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
       <c r="D189" s="2" t="s">
         <v>95</v>
       </c>
@@ -3520,9 +3529,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
       <c r="D190" s="2" t="s">
         <v>96</v>
       </c>
@@ -3531,9 +3540,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
       <c r="D191" s="2" t="s">
         <v>108</v>
       </c>
@@ -3542,9 +3551,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
       <c r="D192" s="2" t="s">
         <v>109</v>
       </c>
@@ -3553,1045 +3562,1045 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
       <c r="D193" s="2">
         <v>31</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
       <c r="D194" s="2">
         <v>32</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
       <c r="D195" s="2">
         <v>33</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
       <c r="D196" s="2">
         <v>34</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
       <c r="D197" s="2">
         <v>35</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
       <c r="D198" s="2">
         <v>36</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
       <c r="D199" s="2">
         <v>37</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
       <c r="D200" s="2">
         <v>38</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
       <c r="D201" s="2">
         <v>39</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
       <c r="D202" s="2">
         <v>40</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
       <c r="D203" s="2">
         <v>41</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
       <c r="D204" s="2">
         <v>42</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
       <c r="D205" s="2">
         <v>43</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
       <c r="D206" s="2">
         <v>44</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
       <c r="D207" s="2">
         <v>45</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
       <c r="D208" s="2">
         <v>46</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
       <c r="D209" s="2">
         <v>47</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
       <c r="D210" s="2">
         <v>48</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
       <c r="D211" s="2">
         <v>49</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
       <c r="D212" s="2">
         <v>50</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
       <c r="D213" s="2">
         <v>51</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
       <c r="D214" s="2">
         <v>52</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
       <c r="D215" s="2">
         <v>53</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
       <c r="D216" s="2">
         <v>54</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
       <c r="D217" s="2">
         <v>55</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
       <c r="D218" s="2">
         <v>56</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
       <c r="D219" s="2">
         <v>57</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
       <c r="D220" s="2">
         <v>58</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
       <c r="D221" s="2">
         <v>59</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
       <c r="D222" s="2">
         <v>60</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
       <c r="D223" s="2">
         <v>61</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
       <c r="D224" s="2">
         <v>62</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
       <c r="D225" s="2">
         <v>63</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
       <c r="D226" s="2">
         <v>64</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
       <c r="D227" s="2">
         <v>65</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
       <c r="D228" s="2">
         <v>66</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
       <c r="D229" s="2">
         <v>67</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
       <c r="D230" s="2">
         <v>68</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
       <c r="D231" s="2">
         <v>69</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
       <c r="D232" s="2">
         <v>70</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
       <c r="D233" s="2">
         <v>71</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
       <c r="D234" s="2">
         <v>72</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
       <c r="D235" s="2">
         <v>73</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
       <c r="D236" s="2">
         <v>74</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
       <c r="D237" s="2">
         <v>75</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
       <c r="D238" s="2">
         <v>76</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
       <c r="D239" s="2">
         <v>77</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
       <c r="D240" s="2">
         <v>78</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
       <c r="D241" s="2">
         <v>1</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="7"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
       <c r="D242" s="2">
         <v>2</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="7"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
       <c r="D243" s="2">
         <v>3</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="7"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
       <c r="D244" s="2">
         <v>4</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="7"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
       <c r="D245" s="2">
         <v>5</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="7"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
       <c r="D246" s="2">
         <v>6</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
       <c r="D247" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="E248" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E248" s="6" t="s">
+    <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E249" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
     <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="7"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
       <c r="D250" s="2"/>
       <c r="E250" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
       <c r="D251" s="2"/>
       <c r="E251" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
       <c r="D252" s="2"/>
       <c r="E252" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="7"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
       <c r="D253" s="2"/>
       <c r="E253" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="7"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
       <c r="D254" s="2"/>
       <c r="E254" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="7"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
       <c r="D255" s="2"/>
       <c r="E255" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
       <c r="D256" s="2"/>
       <c r="E256" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="7"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
       <c r="D257" s="2"/>
       <c r="E257" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="7"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
       <c r="D258" s="2"/>
       <c r="E258" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="7"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
       <c r="D259" s="2"/>
       <c r="E259" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="7"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
       <c r="D260" s="2"/>
       <c r="E260" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="7"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
       <c r="D261" s="2"/>
       <c r="E261" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="7"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
       <c r="D262" s="2"/>
       <c r="E262" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="7"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
       <c r="D263" s="2"/>
       <c r="E263" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="7"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
       <c r="D264" s="2"/>
       <c r="E264" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
       <c r="D265" s="2"/>
       <c r="E265" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
-      <c r="C266" s="7"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
       <c r="D266" s="2"/>
       <c r="E266" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
-      <c r="C267" s="7"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
       <c r="D267" s="2"/>
       <c r="E267" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
-      <c r="C268" s="7"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
       <c r="D268" s="2"/>
       <c r="E268" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
-      <c r="C269" s="7"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
       <c r="D269" s="2"/>
       <c r="E269" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
-      <c r="C270" s="7"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
       <c r="D270" s="2"/>
       <c r="E270" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
-      <c r="C271" s="7"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
       <c r="D271" s="2"/>
       <c r="E271" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
-      <c r="C272" s="7"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
       <c r="D272" s="2"/>
       <c r="E272" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
       <c r="D273" s="2"/>
       <c r="E273" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
-      <c r="C274" s="7"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
-      <c r="C275" s="7"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
-      <c r="C276" s="7"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
-      <c r="C277" s="7"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
-      <c r="C278" s="7"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
-      <c r="C279" s="7"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
-      <c r="C280" s="7"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E287" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
       <c r="D289" s="2"/>
       <c r="E289" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="7"/>
-      <c r="B295" s="7" t="s">
+      <c r="A295" s="8"/>
+      <c r="B295" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -4600,20 +4609,20 @@
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
-      <c r="C296" s="7"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
       <c r="D296" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="7"/>
-      <c r="B297" s="7" t="s">
+      <c r="A297" s="8"/>
+      <c r="B297" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -4624,20 +4633,20 @@
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
-      <c r="C298" s="7"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
       <c r="D298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="7"/>
-      <c r="B299" s="7" t="s">
+      <c r="A299" s="8"/>
+      <c r="B299" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -4648,16 +4657,16 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
-      <c r="C300" s="7"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
       <c r="D300" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="7"/>
+      <c r="A301" s="8"/>
       <c r="B301" s="9" t="s">
         <v>9</v>
       </c>
@@ -4665,14 +4674,14 @@
         <v>101</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E301" s="8" t="s">
         <v>296</v>
       </c>
+      <c r="E301" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="7"/>
+      <c r="A302" s="8"/>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="2" t="s">
@@ -4683,7 +4692,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="7"/>
+      <c r="A303" s="8"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
       <c r="D303" s="2" t="s">
@@ -4693,6 +4702,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B294"/>
     <mergeCell ref="C299:C300"/>
     <mergeCell ref="C301:C303"/>
     <mergeCell ref="B301:B303"/>
@@ -4709,7 +4719,6 @@
     <mergeCell ref="C295:C296"/>
     <mergeCell ref="C297:C298"/>
     <mergeCell ref="C163:C294"/>
-    <mergeCell ref="B2:B294"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4722,6 +4731,8 @@
     <hyperlink ref="E302" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
     <hyperlink ref="E3" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
     <hyperlink ref="E301" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{E54C7502-3B46-49A1-AA85-C3759ED96EDD}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{A24A5C06-E5E5-472B-9143-420E513C860D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023167F8-506B-4CF4-ACE1-FDB8E73F9C21}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FF874F-CF14-464D-8BF8-ACC5E83D69E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,198 +891,195 @@
     <t>https://nicktsai88.github.io/PushChineseClassical-077</t>
   </si>
   <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/PushChineseClassical-077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://nicktsai88.github.io/PushChineseClassical-078</t>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nicktsai88.github.io/PushChineseClassical-078</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,6 +1144,30 @@
   </si>
   <si>
     <t>第二回-國二上尋找失落的水源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L7 張釋之執法-補充教材1     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7 張釋之執法-補充教材2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Chinese3-L7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Chinese3-L7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/English3-L5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/English3-L6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,7 +1307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,9 +1321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1687,8 +1705,8 @@
       <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>293</v>
+      <c r="E2" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1696,10 +1714,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1707,89 +1725,89 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>297</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>290</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1798,16 +1816,20 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>288</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1816,7 +1838,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1825,43 +1847,39 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1869,10 +1887,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1880,10 +1898,10 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1891,10 +1909,10 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1902,10 +1920,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1913,10 +1931,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1924,10 +1942,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1935,10 +1953,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1946,10 +1964,10 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1957,10 +1975,10 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1968,10 +1986,10 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1979,10 +1997,10 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1990,10 +2008,10 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2001,10 +2019,10 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2012,10 +2030,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2023,10 +2041,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2034,10 +2052,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2045,10 +2063,10 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2056,10 +2074,10 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2067,10 +2085,10 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2078,10 +2096,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2089,10 +2107,10 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2100,10 +2118,10 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2111,10 +2129,10 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2122,10 +2140,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2133,10 +2151,10 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2144,10 +2162,10 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2155,10 +2173,10 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2166,10 +2184,10 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2177,10 +2195,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2188,10 +2206,10 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2199,10 +2217,10 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2210,10 +2228,10 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2221,10 +2239,10 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2232,10 +2250,10 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2243,10 +2261,10 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2254,10 +2272,10 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2265,38 +2283,42 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="8"/>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -2305,7 +2327,7 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -2314,7 +2336,7 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -2323,7 +2345,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -2332,7 +2354,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -2341,7 +2363,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -2350,7 +2372,7 @@
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -2359,7 +2381,7 @@
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -2368,7 +2390,7 @@
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -2377,7 +2399,7 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -2386,7 +2408,7 @@
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2"/>
     </row>
@@ -2395,7 +2417,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2"/>
     </row>
@@ -2404,7 +2426,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -2413,7 +2435,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -2422,7 +2444,7 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -2431,7 +2453,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -2440,7 +2462,7 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -2449,7 +2471,7 @@
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2"/>
     </row>
@@ -2458,7 +2480,7 @@
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E77" s="2"/>
     </row>
@@ -2467,7 +2489,7 @@
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E78" s="2"/>
     </row>
@@ -2476,7 +2498,7 @@
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2"/>
     </row>
@@ -2485,7 +2507,7 @@
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2"/>
     </row>
@@ -2494,7 +2516,7 @@
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -2503,7 +2525,7 @@
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -2512,7 +2534,7 @@
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -2521,7 +2543,7 @@
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -2530,7 +2552,7 @@
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -2539,7 +2561,7 @@
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E86" s="2"/>
     </row>
@@ -2548,7 +2570,7 @@
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E87" s="2"/>
     </row>
@@ -2557,7 +2579,7 @@
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -2566,7 +2588,7 @@
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E89" s="2"/>
     </row>
@@ -2575,7 +2597,7 @@
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -2584,7 +2606,7 @@
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E91" s="2"/>
     </row>
@@ -2593,7 +2615,7 @@
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E92" s="2"/>
     </row>
@@ -2602,7 +2624,7 @@
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -2611,7 +2633,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -2620,7 +2642,7 @@
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -2629,7 +2651,7 @@
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -2638,7 +2660,7 @@
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -2647,7 +2669,7 @@
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -2656,7 +2678,7 @@
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -2665,18 +2687,16 @@
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>62</v>
+      <c r="C101" s="8"/>
+      <c r="D101" s="2">
+        <v>43</v>
       </c>
       <c r="E101" s="2"/>
     </row>
@@ -2684,17 +2704,19 @@
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="2" t="s">
-        <v>63</v>
+      <c r="D102" s="2">
+        <v>44</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="D103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E103" s="2"/>
     </row>
@@ -2703,7 +2725,7 @@
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -2712,7 +2734,7 @@
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E105" s="2"/>
     </row>
@@ -2721,7 +2743,7 @@
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -2730,7 +2752,7 @@
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E107" s="2"/>
     </row>
@@ -2738,8 +2760,8 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="2">
-        <v>8</v>
+      <c r="D108" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -2747,8 +2769,8 @@
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="2">
-        <v>9</v>
+      <c r="D109" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -2757,7 +2779,7 @@
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -2766,7 +2788,7 @@
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -2775,7 +2797,7 @@
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2"/>
     </row>
@@ -2784,7 +2806,7 @@
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -2793,7 +2815,7 @@
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -2802,7 +2824,7 @@
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -2811,7 +2833,7 @@
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -2820,7 +2842,7 @@
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -2829,7 +2851,7 @@
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -2838,7 +2860,7 @@
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -2847,7 +2869,7 @@
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E120" s="2"/>
     </row>
@@ -2856,7 +2878,7 @@
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -2865,7 +2887,7 @@
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -2874,7 +2896,7 @@
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -2883,7 +2905,7 @@
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2"/>
     </row>
@@ -2892,7 +2914,7 @@
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -2901,7 +2923,7 @@
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E126" s="2"/>
     </row>
@@ -2910,7 +2932,7 @@
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -2919,7 +2941,7 @@
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -2928,7 +2950,7 @@
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -2937,7 +2959,7 @@
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -2946,7 +2968,7 @@
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -2955,7 +2977,7 @@
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -2964,7 +2986,7 @@
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -2973,7 +2995,7 @@
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -2982,7 +3004,7 @@
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -2991,7 +3013,7 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -3000,7 +3022,7 @@
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -3009,7 +3031,7 @@
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -3018,7 +3040,7 @@
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -3027,7 +3049,7 @@
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -3036,7 +3058,7 @@
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -3045,7 +3067,7 @@
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -3054,7 +3076,7 @@
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -3063,7 +3085,7 @@
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2"/>
     </row>
@@ -3072,7 +3094,7 @@
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E145" s="2"/>
     </row>
@@ -3081,7 +3103,7 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E146" s="2"/>
     </row>
@@ -3090,7 +3112,7 @@
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E147" s="2"/>
     </row>
@@ -3099,7 +3121,7 @@
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E148" s="2"/>
     </row>
@@ -3108,7 +3130,7 @@
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -3117,7 +3139,7 @@
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E150" s="2"/>
     </row>
@@ -3126,7 +3148,7 @@
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -3135,7 +3157,7 @@
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2"/>
     </row>
@@ -3144,7 +3166,7 @@
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -3153,7 +3175,7 @@
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -3162,7 +3184,7 @@
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E155" s="2"/>
     </row>
@@ -3171,7 +3193,7 @@
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E156" s="2"/>
     </row>
@@ -3180,7 +3202,7 @@
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E157" s="2"/>
     </row>
@@ -3189,7 +3211,7 @@
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E158" s="2"/>
     </row>
@@ -3198,7 +3220,7 @@
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E159" s="2"/>
     </row>
@@ -3207,7 +3229,7 @@
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -3216,7 +3238,7 @@
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E161" s="2"/>
     </row>
@@ -3225,43 +3247,39 @@
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
-      <c r="C163" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C163" s="8"/>
+      <c r="D163" s="2">
+        <v>61</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="D164" s="2">
+        <v>62</v>
+      </c>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="C165" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D165" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3269,10 +3287,10 @@
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3280,10 +3298,10 @@
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3291,10 +3309,10 @@
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3302,10 +3320,10 @@
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3313,10 +3331,10 @@
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3324,10 +3342,10 @@
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3335,10 +3353,10 @@
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3346,10 +3364,10 @@
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3357,10 +3375,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3368,10 +3386,10 @@
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3379,10 +3397,10 @@
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3390,10 +3408,10 @@
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3401,10 +3419,10 @@
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3412,10 +3430,10 @@
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3423,10 +3441,10 @@
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3434,10 +3452,10 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3445,10 +3463,10 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3456,10 +3474,10 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3467,10 +3485,10 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3478,10 +3496,10 @@
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3489,10 +3507,10 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3500,10 +3518,10 @@
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3511,10 +3529,10 @@
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3522,10 +3540,10 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3533,10 +3551,10 @@
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3544,10 +3562,10 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3555,32 +3573,32 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="2">
-        <v>31</v>
+      <c r="D193" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="2">
-        <v>32</v>
+      <c r="D194" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3588,10 +3606,10 @@
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3599,10 +3617,10 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3610,10 +3628,10 @@
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3621,10 +3639,10 @@
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3632,10 +3650,10 @@
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3643,10 +3661,10 @@
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3654,10 +3672,10 @@
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3665,10 +3683,10 @@
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3676,10 +3694,10 @@
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3687,10 +3705,10 @@
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3698,10 +3716,10 @@
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3709,10 +3727,10 @@
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3720,10 +3738,10 @@
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3731,10 +3749,10 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3742,10 +3760,10 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3753,10 +3771,10 @@
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3764,10 +3782,10 @@
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3775,10 +3793,10 @@
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3786,10 +3804,10 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3797,10 +3815,10 @@
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3808,10 +3826,10 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3819,10 +3837,10 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3830,10 +3848,10 @@
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3841,10 +3859,10 @@
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3852,10 +3870,10 @@
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3863,10 +3881,10 @@
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3874,10 +3892,10 @@
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3885,10 +3903,10 @@
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3896,10 +3914,10 @@
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3907,10 +3925,10 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3918,10 +3936,10 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3929,10 +3947,10 @@
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3940,10 +3958,10 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3951,10 +3969,10 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3962,10 +3980,10 @@
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3973,10 +3991,10 @@
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3984,10 +4002,10 @@
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3995,10 +4013,10 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4006,10 +4024,10 @@
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4017,10 +4035,10 @@
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4028,10 +4046,10 @@
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4039,10 +4057,10 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4050,10 +4068,10 @@
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4061,10 +4079,10 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4072,10 +4090,10 @@
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4083,10 +4101,10 @@
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4094,10 +4112,10 @@
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4105,10 +4123,10 @@
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="2">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4116,10 +4134,10 @@
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4127,10 +4145,10 @@
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4138,10 +4156,10 @@
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4149,32 +4167,32 @@
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
-      <c r="D247" s="2" t="s">
-        <v>188</v>
+      <c r="D247" s="2">
+        <v>5</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
-      <c r="D248" s="2" t="s">
-        <v>189</v>
+      <c r="D248" s="2">
+        <v>6</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4182,28 +4200,32 @@
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="2" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E250" s="6" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="E251" s="6" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4212,7 +4234,7 @@
       <c r="C252" s="8"/>
       <c r="D252" s="2"/>
       <c r="E252" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4221,7 +4243,7 @@
       <c r="C253" s="8"/>
       <c r="D253" s="2"/>
       <c r="E253" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4230,7 +4252,7 @@
       <c r="C254" s="8"/>
       <c r="D254" s="2"/>
       <c r="E254" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4239,7 +4261,7 @@
       <c r="C255" s="8"/>
       <c r="D255" s="2"/>
       <c r="E255" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4248,7 +4270,7 @@
       <c r="C256" s="8"/>
       <c r="D256" s="2"/>
       <c r="E256" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4257,7 +4279,7 @@
       <c r="C257" s="8"/>
       <c r="D257" s="2"/>
       <c r="E257" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4266,7 +4288,7 @@
       <c r="C258" s="8"/>
       <c r="D258" s="2"/>
       <c r="E258" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4275,7 +4297,7 @@
       <c r="C259" s="8"/>
       <c r="D259" s="2"/>
       <c r="E259" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4284,7 +4306,7 @@
       <c r="C260" s="8"/>
       <c r="D260" s="2"/>
       <c r="E260" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4293,7 +4315,7 @@
       <c r="C261" s="8"/>
       <c r="D261" s="2"/>
       <c r="E261" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4302,7 +4324,7 @@
       <c r="C262" s="8"/>
       <c r="D262" s="2"/>
       <c r="E262" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4311,7 +4333,7 @@
       <c r="C263" s="8"/>
       <c r="D263" s="2"/>
       <c r="E263" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4320,7 +4342,7 @@
       <c r="C264" s="8"/>
       <c r="D264" s="2"/>
       <c r="E264" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4329,7 +4351,7 @@
       <c r="C265" s="8"/>
       <c r="D265" s="2"/>
       <c r="E265" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4338,7 +4360,7 @@
       <c r="C266" s="8"/>
       <c r="D266" s="2"/>
       <c r="E266" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4347,7 +4369,7 @@
       <c r="C267" s="8"/>
       <c r="D267" s="2"/>
       <c r="E267" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4356,7 +4378,7 @@
       <c r="C268" s="8"/>
       <c r="D268" s="2"/>
       <c r="E268" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4365,7 +4387,7 @@
       <c r="C269" s="8"/>
       <c r="D269" s="2"/>
       <c r="E269" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4374,7 +4396,7 @@
       <c r="C270" s="8"/>
       <c r="D270" s="2"/>
       <c r="E270" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4383,7 +4405,7 @@
       <c r="C271" s="8"/>
       <c r="D271" s="2"/>
       <c r="E271" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4392,7 +4414,7 @@
       <c r="C272" s="8"/>
       <c r="D272" s="2"/>
       <c r="E272" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4401,7 +4423,7 @@
       <c r="C273" s="8"/>
       <c r="D273" s="2"/>
       <c r="E273" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4410,7 +4432,7 @@
       <c r="C274" s="8"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4419,7 +4441,7 @@
       <c r="C275" s="8"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4428,7 +4450,7 @@
       <c r="C276" s="8"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4437,7 +4459,7 @@
       <c r="C277" s="8"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4446,7 +4468,7 @@
       <c r="C278" s="8"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4455,7 +4477,7 @@
       <c r="C279" s="8"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4464,7 +4486,7 @@
       <c r="C280" s="8"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4473,7 +4495,7 @@
       <c r="C281" s="8"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4482,7 +4504,7 @@
       <c r="C282" s="8"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4491,7 +4513,7 @@
       <c r="C283" s="8"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4500,7 +4522,7 @@
       <c r="C284" s="8"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4509,7 +4531,7 @@
       <c r="C285" s="8"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4518,18 +4540,16 @@
       <c r="C286" s="8"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
-      <c r="D287" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="D287" s="2"/>
       <c r="E287" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4538,16 +4558,18 @@
       <c r="C288" s="8"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="E289" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4556,7 +4578,7 @@
       <c r="C290" s="8"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4565,7 +4587,7 @@
       <c r="C291" s="8"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4574,7 +4596,7 @@
       <c r="C292" s="8"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4583,7 +4605,7 @@
       <c r="C293" s="8"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4592,44 +4614,40 @@
       <c r="C294" s="8"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="8"/>
-      <c r="B295" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="2"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="6" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
-      <c r="D296" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="6" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="8"/>
       <c r="B297" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4637,23 +4655,25 @@
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
       <c r="D298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E298" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="8"/>
       <c r="B299" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4661,78 +4681,108 @@
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E300" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E300" s="6"/>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="8"/>
-      <c r="B301" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C301" s="9" t="s">
+      <c r="B301" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E301" s="7" t="s">
-        <v>295</v>
+        <v>104</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="8"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
       <c r="D302" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E302" s="6"/>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="8"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
+      <c r="B303" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="D303" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A304" s="8"/>
+      <c r="B304" s="10"/>
+      <c r="C304" s="10"/>
+      <c r="D304" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A305" s="8"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E303" s="2"/>
+      <c r="E305" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B294"/>
+    <mergeCell ref="C165:C296"/>
+    <mergeCell ref="B2:B296"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="C303:C305"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="A2:A305"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="C19:C58"/>
+    <mergeCell ref="C59:C102"/>
+    <mergeCell ref="C103:C164"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C297:C298"/>
     <mergeCell ref="C299:C300"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="B301:B303"/>
-    <mergeCell ref="A2:A303"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="C17:C56"/>
-    <mergeCell ref="C57:C100"/>
-    <mergeCell ref="C101:C162"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C163:C294"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E247" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
-    <hyperlink ref="E248" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
-    <hyperlink ref="E249" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
-    <hyperlink ref="E250:E253" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
-    <hyperlink ref="E254:E270" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
-    <hyperlink ref="E271:E294" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
-    <hyperlink ref="E302" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
-    <hyperlink ref="E301" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
+    <hyperlink ref="E249" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
+    <hyperlink ref="E250" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
+    <hyperlink ref="E251" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
+    <hyperlink ref="E252:E255" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
+    <hyperlink ref="E256:E272" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
+    <hyperlink ref="E273:E296" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
+    <hyperlink ref="E304" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
+    <hyperlink ref="E303" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{E54C7502-3B46-49A1-AA85-C3759ED96EDD}"/>
-    <hyperlink ref="E8" r:id="rId11" xr:uid="{A24A5C06-E5E5-472B-9143-420E513C860D}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{A24A5C06-E5E5-472B-9143-420E513C860D}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{EA025ED2-F0C3-4508-A581-2DAC225D4BA3}"/>
+    <hyperlink ref="E3" r:id="rId13" xr:uid="{0A5E0D75-905F-4971-A932-2FD3F3D11870}"/>
+    <hyperlink ref="E296" r:id="rId14" xr:uid="{9387D63B-599E-428A-B0B0-72B373DFD96B}"/>
+    <hyperlink ref="E297" r:id="rId15" xr:uid="{3A8DAEC1-0766-46F5-B045-E34FA545C131}"/>
+    <hyperlink ref="E298" r:id="rId16" xr:uid="{8183DD79-0428-4B1F-B386-D27DDE1A4E74}"/>
+    <hyperlink ref="E299" r:id="rId17" xr:uid="{A2152C86-1C08-4C22-8D27-96977B890A24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\文件\GitHub\List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{87E8297B-4B37-4F2A-B3FB-CDE2112C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FF874F-CF14-464D-8BF8-ACC5E83D69E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5E7CA4-8D1D-45C3-B219-85498E57780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
   <sheets>
     <sheet name="目錄" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第五回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1&lt;論語&gt;孔子與弟子言志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吳敏男-第一輯上冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1168,6 +1156,130 @@
   </si>
   <si>
     <t>https://nicktsai88.github.io/English3-L6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-2/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-3/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-4/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-5/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-6/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-7/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-8/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-9/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-10/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-11/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-12/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-13/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-14/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-15/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-16/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-17/</t>
+  </si>
+  <si>
+    <t>字音第1回-國小範圍(1~98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第2回-國小範圍(99~197)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第3回-國小範圍(198~286)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第4回-國小範圍(287~378)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第5回-國小範圍(379~464)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第6回-國小範圍(465~552)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第7回-國小範圍(553~626)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第8回-國小範圍(627~710)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第9回-國小範圍(711~802)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第10回-國小範圍(803~875)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第11回-國小範圍(876~964)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第12回-國小範圍(965~1048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字音第13回-國小範圍(1049~1132)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第1回-國小範圍(1~98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第2回-國小範圍(1~98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第3回-國小範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第4回-國小範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/History3-L6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,10 +1450,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K297" sqref="K297"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1680,16 +1788,16 @@
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1700,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1714,10 +1822,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1725,10 +1833,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1739,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1776,10 +1884,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1787,10 +1895,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1798,7 +1906,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1807,7 +1915,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1816,10 +1924,10 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1829,57 +1937,65 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>320</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>118</v>
+        <v>323</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1887,10 +2003,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>324</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1898,10 +2014,10 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>120</v>
+        <v>325</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1909,10 +2025,10 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>121</v>
+        <v>326</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1920,10 +2036,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>122</v>
+        <v>327</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1931,10 +2047,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>328</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1942,10 +2058,10 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>124</v>
+        <v>329</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1953,10 +2069,10 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>125</v>
+        <v>330</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1964,10 +2080,10 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>126</v>
+        <v>331</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1975,10 +2091,10 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>127</v>
+        <v>332</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1986,10 +2102,10 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>128</v>
+        <v>333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -1997,21 +2113,23 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>129</v>
+        <v>334</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2019,10 +2137,10 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2030,10 +2148,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2041,10 +2159,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2052,10 +2170,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2063,10 +2181,10 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2074,10 +2192,10 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2085,10 +2203,10 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2096,10 +2214,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2107,10 +2225,10 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2118,10 +2236,10 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2129,10 +2247,10 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2140,10 +2258,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2151,10 +2269,10 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2162,10 +2280,10 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2173,10 +2291,10 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2184,10 +2302,10 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2195,10 +2313,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2206,10 +2324,10 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2217,10 +2335,10 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2228,10 +2346,10 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2239,10 +2357,10 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2250,10 +2368,10 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2261,10 +2379,10 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2272,10 +2390,10 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2283,10 +2401,10 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2294,10 +2412,10 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2305,128 +2423,152 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="8"/>
+      <c r="D59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="2">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="2">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="2">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="2">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="2">
-        <v>7</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="2">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="2">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="2">
-        <v>10</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="2">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="2">
-        <v>12</v>
-      </c>
-      <c r="E70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="D71" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2"/>
     </row>
@@ -2435,7 +2577,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -2444,7 +2586,7 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -2453,7 +2595,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -2462,7 +2604,7 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -2471,7 +2613,7 @@
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E76" s="2"/>
     </row>
@@ -2480,7 +2622,7 @@
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E77" s="2"/>
     </row>
@@ -2489,7 +2631,7 @@
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2"/>
     </row>
@@ -2498,7 +2640,7 @@
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2"/>
     </row>
@@ -2507,7 +2649,7 @@
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2"/>
     </row>
@@ -2516,7 +2658,7 @@
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -2525,7 +2667,7 @@
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -2534,7 +2676,7 @@
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -2543,7 +2685,7 @@
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -2552,7 +2694,7 @@
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E85" s="2"/>
     </row>
@@ -2561,7 +2703,7 @@
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E86" s="2"/>
     </row>
@@ -2570,7 +2712,7 @@
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E87" s="2"/>
     </row>
@@ -2579,7 +2721,7 @@
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -2588,7 +2730,7 @@
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2"/>
     </row>
@@ -2597,7 +2739,7 @@
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -2606,7 +2748,7 @@
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E91" s="2"/>
     </row>
@@ -2615,7 +2757,7 @@
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E92" s="2"/>
     </row>
@@ -2624,7 +2766,7 @@
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -2633,7 +2775,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -2642,7 +2784,7 @@
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -2651,7 +2793,7 @@
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -2660,7 +2802,7 @@
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -2669,7 +2811,7 @@
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -2678,7 +2820,7 @@
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E99" s="2"/>
     </row>
@@ -2687,7 +2829,7 @@
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -2696,7 +2838,7 @@
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="2">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E101" s="2"/>
     </row>
@@ -2705,18 +2847,16 @@
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>62</v>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2">
+        <v>33</v>
       </c>
       <c r="E103" s="2"/>
     </row>
@@ -2724,8 +2864,8 @@
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="2" t="s">
-        <v>63</v>
+      <c r="D104" s="2">
+        <v>34</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -2733,8 +2873,8 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="2" t="s">
-        <v>64</v>
+      <c r="D105" s="2">
+        <v>35</v>
       </c>
       <c r="E105" s="2"/>
     </row>
@@ -2742,8 +2882,8 @@
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="2" t="s">
-        <v>65</v>
+      <c r="D106" s="2">
+        <v>36</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -2751,8 +2891,8 @@
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="2" t="s">
-        <v>66</v>
+      <c r="D107" s="2">
+        <v>37</v>
       </c>
       <c r="E107" s="2"/>
     </row>
@@ -2760,8 +2900,8 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="2" t="s">
-        <v>67</v>
+      <c r="D108" s="2">
+        <v>38</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -2769,8 +2909,8 @@
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="2" t="s">
-        <v>68</v>
+      <c r="D109" s="2">
+        <v>39</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -2779,7 +2919,7 @@
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -2788,7 +2928,7 @@
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -2797,7 +2937,7 @@
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E112" s="2"/>
     </row>
@@ -2806,7 +2946,7 @@
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -2815,16 +2955,18 @@
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="2">
-        <v>13</v>
+      <c r="C115" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -2832,8 +2974,8 @@
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="2">
-        <v>14</v>
+      <c r="D116" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -2841,8 +2983,8 @@
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="2">
-        <v>15</v>
+      <c r="D117" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -2850,8 +2992,8 @@
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="2">
-        <v>16</v>
+      <c r="D118" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -2859,8 +3001,8 @@
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="2">
-        <v>17</v>
+      <c r="D119" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -2868,8 +3010,8 @@
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="2">
-        <v>18</v>
+      <c r="D120" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E120" s="2"/>
     </row>
@@ -2877,8 +3019,8 @@
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="2">
-        <v>19</v>
+      <c r="D121" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -2887,7 +3029,7 @@
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -2896,7 +3038,7 @@
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -2905,7 +3047,7 @@
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2"/>
     </row>
@@ -2914,7 +3056,7 @@
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -2923,7 +3065,7 @@
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E126" s="2"/>
     </row>
@@ -2932,7 +3074,7 @@
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -2941,7 +3083,7 @@
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -2950,7 +3092,7 @@
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -2959,7 +3101,7 @@
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -2968,7 +3110,7 @@
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -2977,7 +3119,7 @@
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -2986,7 +3128,7 @@
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -2995,7 +3137,7 @@
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -3004,7 +3146,7 @@
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -3013,7 +3155,7 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -3022,7 +3164,7 @@
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -3031,7 +3173,7 @@
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -3040,7 +3182,7 @@
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -3049,7 +3191,7 @@
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -3058,7 +3200,7 @@
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -3067,7 +3209,7 @@
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -3076,7 +3218,7 @@
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -3085,7 +3227,7 @@
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E144" s="2"/>
     </row>
@@ -3094,7 +3236,7 @@
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="2">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E145" s="2"/>
     </row>
@@ -3103,7 +3245,7 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E146" s="2"/>
     </row>
@@ -3112,7 +3254,7 @@
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="2">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E147" s="2"/>
     </row>
@@ -3121,7 +3263,7 @@
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E148" s="2"/>
     </row>
@@ -3130,7 +3272,7 @@
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -3139,7 +3281,7 @@
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E150" s="2"/>
     </row>
@@ -3148,7 +3290,7 @@
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -3157,7 +3299,7 @@
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E152" s="2"/>
     </row>
@@ -3166,7 +3308,7 @@
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -3175,7 +3317,7 @@
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -3184,7 +3326,7 @@
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E155" s="2"/>
     </row>
@@ -3193,7 +3335,7 @@
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E156" s="2"/>
     </row>
@@ -3202,7 +3344,7 @@
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E157" s="2"/>
     </row>
@@ -3211,7 +3353,7 @@
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E158" s="2"/>
     </row>
@@ -3220,7 +3362,7 @@
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E159" s="2"/>
     </row>
@@ -3229,7 +3371,7 @@
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -3238,7 +3380,7 @@
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E161" s="2"/>
     </row>
@@ -3247,7 +3389,7 @@
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E162" s="2"/>
     </row>
@@ -3256,7 +3398,7 @@
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E163" s="2"/>
     </row>
@@ -3265,153 +3407,129 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C165" s="8"/>
+      <c r="D165" s="2">
+        <v>51</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D166" s="2">
+        <v>52</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D167" s="2">
+        <v>53</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D168" s="2">
+        <v>54</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D169" s="2">
+        <v>55</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D170" s="2">
+        <v>56</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D171" s="2">
+        <v>57</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D172" s="2">
+        <v>58</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="2">
+        <v>59</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D174" s="2">
+        <v>60</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="2">
+        <v>61</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="D176" s="2">
+        <v>62</v>
+      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
+      <c r="C177" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D177" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3419,10 +3537,10 @@
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3430,10 +3548,10 @@
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3441,10 +3559,10 @@
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3452,10 +3570,10 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3463,10 +3581,10 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3474,10 +3592,10 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3485,10 +3603,10 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3496,10 +3614,10 @@
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3507,10 +3625,10 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3518,10 +3636,10 @@
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3529,10 +3647,10 @@
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3540,10 +3658,10 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3551,10 +3669,10 @@
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3562,10 +3680,10 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3573,10 +3691,10 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3584,10 +3702,10 @@
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3595,142 +3713,142 @@
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="2">
-        <v>31</v>
+      <c r="D195" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="2">
-        <v>32</v>
+      <c r="D196" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="2">
-        <v>33</v>
+      <c r="D197" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="2">
-        <v>34</v>
+      <c r="D198" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="2">
-        <v>35</v>
+      <c r="D199" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="2">
-        <v>36</v>
+      <c r="D200" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="2">
-        <v>37</v>
+      <c r="D201" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
-      <c r="D202" s="2">
-        <v>38</v>
+      <c r="D202" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
-      <c r="D203" s="2">
-        <v>39</v>
+      <c r="D203" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
-      <c r="D204" s="2">
-        <v>40</v>
+      <c r="D204" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
-      <c r="D205" s="2">
-        <v>41</v>
+      <c r="D205" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="2">
-        <v>42</v>
+      <c r="D206" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3738,10 +3856,10 @@
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="2">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3749,10 +3867,10 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3760,10 +3878,10 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="2">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3771,10 +3889,10 @@
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3782,10 +3900,10 @@
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3793,10 +3911,10 @@
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3804,10 +3922,10 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3815,10 +3933,10 @@
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3826,10 +3944,10 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3837,10 +3955,10 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3848,10 +3966,10 @@
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3859,10 +3977,10 @@
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3870,10 +3988,10 @@
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3881,10 +3999,10 @@
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3892,10 +4010,10 @@
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3903,10 +4021,10 @@
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3914,10 +4032,10 @@
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3925,10 +4043,10 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3936,10 +4054,10 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3947,10 +4065,10 @@
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3958,10 +4076,10 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3969,10 +4087,10 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3980,10 +4098,10 @@
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -3991,10 +4109,10 @@
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4002,10 +4120,10 @@
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="2">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4013,10 +4131,10 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="2">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4024,10 +4142,10 @@
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4035,10 +4153,10 @@
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4046,10 +4164,10 @@
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="2">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4057,10 +4175,10 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4068,10 +4186,10 @@
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4079,10 +4197,10 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4090,10 +4208,10 @@
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4101,10 +4219,10 @@
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4112,10 +4230,10 @@
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="2">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4123,10 +4241,10 @@
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4134,10 +4252,10 @@
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4145,10 +4263,10 @@
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="2">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4156,10 +4274,10 @@
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4167,10 +4285,10 @@
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="2">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4178,10 +4296,10 @@
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="2">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4189,151 +4307,175 @@
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="2">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
-      <c r="D249" s="2" t="s">
-        <v>188</v>
+      <c r="D249" s="2">
+        <v>73</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
-      <c r="D250" s="2" t="s">
-        <v>189</v>
+      <c r="D250" s="2">
+        <v>74</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
-      <c r="D251" s="2" t="s">
-        <v>290</v>
+      <c r="D251" s="2">
+        <v>75</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="2">
+        <v>76</v>
+      </c>
       <c r="E252" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="2">
+        <v>77</v>
+      </c>
       <c r="E253" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="2">
+        <v>78</v>
+      </c>
       <c r="E254" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="2">
+        <v>1</v>
+      </c>
       <c r="E255" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="2">
+        <v>2</v>
+      </c>
       <c r="E256" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="2">
+        <v>3</v>
+      </c>
       <c r="E257" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="2">
+        <v>4</v>
+      </c>
       <c r="E258" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="2">
+        <v>5</v>
+      </c>
       <c r="E259" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="2">
+        <v>6</v>
+      </c>
       <c r="E260" s="6" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="E261" s="6" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E262" s="6" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="E263" s="6" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4342,7 +4484,7 @@
       <c r="C264" s="8"/>
       <c r="D264" s="2"/>
       <c r="E264" s="6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4351,7 +4493,7 @@
       <c r="C265" s="8"/>
       <c r="D265" s="2"/>
       <c r="E265" s="6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4360,7 +4502,7 @@
       <c r="C266" s="8"/>
       <c r="D266" s="2"/>
       <c r="E266" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4369,7 +4511,7 @@
       <c r="C267" s="8"/>
       <c r="D267" s="2"/>
       <c r="E267" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4378,7 +4520,7 @@
       <c r="C268" s="8"/>
       <c r="D268" s="2"/>
       <c r="E268" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4387,7 +4529,7 @@
       <c r="C269" s="8"/>
       <c r="D269" s="2"/>
       <c r="E269" s="6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4396,7 +4538,7 @@
       <c r="C270" s="8"/>
       <c r="D270" s="2"/>
       <c r="E270" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4405,7 +4547,7 @@
       <c r="C271" s="8"/>
       <c r="D271" s="2"/>
       <c r="E271" s="6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4414,7 +4556,7 @@
       <c r="C272" s="8"/>
       <c r="D272" s="2"/>
       <c r="E272" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4423,7 +4565,7 @@
       <c r="C273" s="8"/>
       <c r="D273" s="2"/>
       <c r="E273" s="6" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4432,7 +4574,7 @@
       <c r="C274" s="8"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4441,7 +4583,7 @@
       <c r="C275" s="8"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4450,7 +4592,7 @@
       <c r="C276" s="8"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4459,7 +4601,7 @@
       <c r="C277" s="8"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4468,7 +4610,7 @@
       <c r="C278" s="8"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4477,7 +4619,7 @@
       <c r="C279" s="8"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4486,7 +4628,7 @@
       <c r="C280" s="8"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4495,7 +4637,7 @@
       <c r="C281" s="8"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4504,7 +4646,7 @@
       <c r="C282" s="8"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4513,7 +4655,7 @@
       <c r="C283" s="8"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4522,7 +4664,7 @@
       <c r="C284" s="8"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4531,7 +4673,7 @@
       <c r="C285" s="8"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4540,7 +4682,7 @@
       <c r="C286" s="8"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4549,7 +4691,7 @@
       <c r="C287" s="8"/>
       <c r="D287" s="2"/>
       <c r="E287" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,18 +4700,16 @@
       <c r="C288" s="8"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
-      <c r="D289" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="D289" s="2"/>
       <c r="E289" s="6" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4578,7 +4718,7 @@
       <c r="C290" s="8"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4587,7 +4727,7 @@
       <c r="C291" s="8"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4596,7 +4736,7 @@
       <c r="C292" s="8"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4605,7 +4745,7 @@
       <c r="C293" s="8"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4614,7 +4754,7 @@
       <c r="C294" s="8"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4623,7 +4763,7 @@
       <c r="C295" s="8"/>
       <c r="D295" s="2"/>
       <c r="E295" s="6" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4632,157 +4772,272 @@
       <c r="C296" s="8"/>
       <c r="D296" s="2"/>
       <c r="E296" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="8"/>
-      <c r="B297" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="2"/>
       <c r="E297" s="6" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
-      <c r="D298" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D298" s="2"/>
       <c r="E298" s="6" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="8"/>
-      <c r="B299" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="2"/>
       <c r="E299" s="6" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
-      <c r="D300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E300" s="6"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="8"/>
-      <c r="B301" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
       <c r="D301" s="2" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
-      <c r="D302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E302" s="6"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="8"/>
-      <c r="B303" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="2"/>
       <c r="E303" s="6" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="8"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="2"/>
       <c r="E304" s="6" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="8"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="2" t="s">
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A309" s="8"/>
+      <c r="B309" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A311" s="8"/>
+      <c r="B311" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A313" s="8"/>
+      <c r="B313" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A315" s="8"/>
+      <c r="B315" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A316" s="8"/>
+      <c r="B316" s="10"/>
+      <c r="C316" s="10"/>
+      <c r="D316" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A317" s="8"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E305" s="6"/>
+      <c r="E317" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C165:C296"/>
-    <mergeCell ref="B2:B296"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="C303:C305"/>
-    <mergeCell ref="B303:B305"/>
-    <mergeCell ref="A2:A305"/>
-    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="A2:A317"/>
+    <mergeCell ref="B309:B310"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="C19:C58"/>
-    <mergeCell ref="C59:C102"/>
-    <mergeCell ref="C103:C164"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C31:C70"/>
+    <mergeCell ref="C71:C114"/>
+    <mergeCell ref="C115:C176"/>
+    <mergeCell ref="C14:C30"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="C177:C308"/>
+    <mergeCell ref="B2:B308"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="B315:B317"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E249" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
-    <hyperlink ref="E250" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
-    <hyperlink ref="E251" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
-    <hyperlink ref="E252:E255" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
-    <hyperlink ref="E256:E272" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
-    <hyperlink ref="E273:E296" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
-    <hyperlink ref="E304" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
+    <hyperlink ref="E261" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
+    <hyperlink ref="E262" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
+    <hyperlink ref="E263" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
+    <hyperlink ref="E264:E267" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
+    <hyperlink ref="E268:E284" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
+    <hyperlink ref="E285:E308" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
+    <hyperlink ref="E316" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
-    <hyperlink ref="E303" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
+    <hyperlink ref="E315" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{E54C7502-3B46-49A1-AA85-C3759ED96EDD}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{A24A5C06-E5E5-472B-9143-420E513C860D}"/>
     <hyperlink ref="E4" r:id="rId12" xr:uid="{EA025ED2-F0C3-4508-A581-2DAC225D4BA3}"/>
     <hyperlink ref="E3" r:id="rId13" xr:uid="{0A5E0D75-905F-4971-A932-2FD3F3D11870}"/>
-    <hyperlink ref="E296" r:id="rId14" xr:uid="{9387D63B-599E-428A-B0B0-72B373DFD96B}"/>
-    <hyperlink ref="E297" r:id="rId15" xr:uid="{3A8DAEC1-0766-46F5-B045-E34FA545C131}"/>
-    <hyperlink ref="E298" r:id="rId16" xr:uid="{8183DD79-0428-4B1F-B386-D27DDE1A4E74}"/>
-    <hyperlink ref="E299" r:id="rId17" xr:uid="{A2152C86-1C08-4C22-8D27-96977B890A24}"/>
+    <hyperlink ref="E308" r:id="rId14" xr:uid="{9387D63B-599E-428A-B0B0-72B373DFD96B}"/>
+    <hyperlink ref="E309" r:id="rId15" xr:uid="{3A8DAEC1-0766-46F5-B045-E34FA545C131}"/>
+    <hyperlink ref="E310" r:id="rId16" xr:uid="{8183DD79-0428-4B1F-B386-D27DDE1A4E74}"/>
+    <hyperlink ref="E311" r:id="rId17" xr:uid="{A2152C86-1C08-4C22-8D27-96977B890A24}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{9ED895BA-7F59-4C02-830D-514F7E280A45}"/>
+    <hyperlink ref="E15:E30" r:id="rId19" display="https://nicktsai88.github.io/Pronunciation-Character-1/" xr:uid="{F940BDE3-F344-425C-89BD-824D8A4EF192}"/>
+    <hyperlink ref="E312" r:id="rId20" xr:uid="{89012AA5-63DE-4732-9224-E489038B4B39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\文件\GitHub\List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5E7CA4-8D1D-45C3-B219-85498E57780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89BBB-C88F-4C72-AD04-51ACE90A5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
   <sheets>
     <sheet name="目錄" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="337">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,6 +1280,10 @@
   </si>
   <si>
     <t>https://nicktsai88.github.io/History3-L6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Geography3-L6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1309,15 +1313,6 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1389,15 +1384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1411,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,9 +1424,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1771,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
   <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E314" sqref="E314"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1801,48 +1789,48 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1851,36 +1839,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1891,38 +1879,38 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2" t="s">
         <v>285</v>
       </c>
@@ -1931,198 +1919,198 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2133,9 +2121,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2144,9 +2132,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2155,9 +2143,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2166,9 +2154,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
@@ -2177,9 +2165,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
@@ -2188,9 +2176,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
@@ -2199,9 +2187,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
@@ -2210,9 +2198,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
@@ -2221,9 +2209,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
@@ -2232,9 +2220,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
@@ -2243,9 +2231,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
@@ -2254,9 +2242,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2265,9 +2253,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="2" t="s">
         <v>33</v>
       </c>
@@ -2276,9 +2264,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
@@ -2287,9 +2275,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="2" t="s">
         <v>35</v>
       </c>
@@ -2298,9 +2286,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
@@ -2309,9 +2297,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="2" t="s">
         <v>37</v>
       </c>
@@ -2320,9 +2308,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="2" t="s">
         <v>38</v>
       </c>
@@ -2331,9 +2319,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="2" t="s">
         <v>39</v>
       </c>
@@ -2342,9 +2330,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="2" t="s">
         <v>40</v>
       </c>
@@ -2353,9 +2341,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="2" t="s">
         <v>41</v>
       </c>
@@ -2364,9 +2352,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="2" t="s">
         <v>42</v>
       </c>
@@ -2375,9 +2363,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="2" t="s">
         <v>43</v>
       </c>
@@ -2386,9 +2374,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="2" t="s">
         <v>44</v>
       </c>
@@ -2397,9 +2385,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="2" t="s">
         <v>45</v>
       </c>
@@ -2408,9 +2396,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="2" t="s">
         <v>46</v>
       </c>
@@ -2419,9 +2407,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="2" t="s">
         <v>47</v>
       </c>
@@ -2430,9 +2418,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="2" t="s">
         <v>48</v>
       </c>
@@ -2441,9 +2429,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
@@ -2452,9 +2440,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="2" t="s">
         <v>50</v>
       </c>
@@ -2463,9 +2451,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2474,9 +2462,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="2" t="s">
         <v>52</v>
       </c>
@@ -2485,9 +2473,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
         <v>53</v>
       </c>
@@ -2496,9 +2484,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="2" t="s">
         <v>54</v>
       </c>
@@ -2507,9 +2495,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
@@ -2518,9 +2506,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="2" t="s">
         <v>56</v>
       </c>
@@ -2529,9 +2517,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="2" t="s">
         <v>57</v>
       </c>
@@ -2540,9 +2528,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="2" t="s">
         <v>58</v>
       </c>
@@ -2551,9 +2539,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="2" t="s">
         <v>59</v>
       </c>
@@ -2562,9 +2550,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="2">
@@ -2573,396 +2561,396 @@
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="2">
         <v>2</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="2">
         <v>3</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="2">
         <v>4</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="2">
         <v>5</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="2">
         <v>6</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="2">
         <v>7</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="2">
         <v>8</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="2">
         <v>9</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="2">
         <v>10</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="2">
         <v>11</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="2">
         <v>12</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="2">
         <v>13</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="2">
         <v>14</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="2">
         <v>15</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="2">
         <v>16</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="2">
         <v>17</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="2">
         <v>18</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="2">
         <v>19</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="2">
         <v>20</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="2">
         <v>21</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="2">
         <v>22</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="2">
         <v>23</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="2">
         <v>24</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="2">
         <v>25</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="2">
         <v>26</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="2">
         <v>27</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="2">
         <v>28</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="2">
         <v>29</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="2">
         <v>30</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="2">
         <v>31</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="2">
         <v>32</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="2">
         <v>33</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="2">
         <v>34</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="2">
         <v>35</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="2">
         <v>36</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="2">
         <v>37</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="2">
         <v>38</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="2">
         <v>39</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="2">
         <v>40</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="2">
         <v>41</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="2">
         <v>42</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="2">
         <v>43</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="2">
         <v>44</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -2971,558 +2959,558 @@
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="2">
         <v>8</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="2">
         <v>9</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="2">
         <v>10</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="2">
         <v>11</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="2">
         <v>12</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="2">
         <v>13</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="2">
         <v>14</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="2">
         <v>15</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="2">
         <v>16</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="2">
         <v>17</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="2">
         <v>18</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="2">
         <v>19</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="2">
         <v>20</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="2">
         <v>21</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="2">
         <v>22</v>
       </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="2">
         <v>23</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="2">
         <v>24</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="2">
         <v>25</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="2">
         <v>26</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="2">
         <v>27</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="2">
         <v>28</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="2">
         <v>29</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="2">
         <v>30</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="2">
         <v>31</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="2">
         <v>32</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="2">
         <v>33</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="2">
         <v>34</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="2">
         <v>35</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="2">
         <v>36</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="2">
         <v>37</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="2">
         <v>38</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="2">
         <v>39</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="2">
         <v>40</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="2">
         <v>41</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="2">
         <v>42</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="2">
         <v>43</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="2">
         <v>44</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="2">
         <v>45</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="2">
         <v>46</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="2">
         <v>47</v>
       </c>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="2">
         <v>48</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="2">
         <v>49</v>
       </c>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="2">
         <v>50</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="2">
         <v>51</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="2">
         <v>52</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="2">
         <v>53</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="2">
         <v>54</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="2">
         <v>55</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="2">
         <v>56</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="2">
         <v>57</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="2">
         <v>58</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="2">
         <v>59</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="2">
         <v>60</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="2">
         <v>61</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="2">
         <v>62</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8" t="s">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -3533,9 +3521,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="2" t="s">
         <v>68</v>
       </c>
@@ -3544,9 +3532,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="2" t="s">
         <v>69</v>
       </c>
@@ -3555,9 +3543,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="2" t="s">
         <v>70</v>
       </c>
@@ -3566,9 +3554,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="2" t="s">
         <v>71</v>
       </c>
@@ -3577,9 +3565,9 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="2" t="s">
         <v>72</v>
       </c>
@@ -3588,9 +3576,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="2" t="s">
         <v>73</v>
       </c>
@@ -3599,9 +3587,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="2" t="s">
         <v>74</v>
       </c>
@@ -3610,9 +3598,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="2" t="s">
         <v>75</v>
       </c>
@@ -3621,9 +3609,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="2" t="s">
         <v>76</v>
       </c>
@@ -3632,9 +3620,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="2" t="s">
         <v>77</v>
       </c>
@@ -3643,9 +3631,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="2" t="s">
         <v>78</v>
       </c>
@@ -3654,9 +3642,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="2" t="s">
         <v>79</v>
       </c>
@@ -3665,9 +3653,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="2" t="s">
         <v>80</v>
       </c>
@@ -3676,9 +3664,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="2" t="s">
         <v>81</v>
       </c>
@@ -3687,9 +3675,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="2" t="s">
         <v>82</v>
       </c>
@@ -3698,9 +3686,9 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="2" t="s">
         <v>83</v>
       </c>
@@ -3709,9 +3697,9 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="2" t="s">
         <v>84</v>
       </c>
@@ -3720,9 +3708,9 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
       <c r="D195" s="2" t="s">
         <v>85</v>
       </c>
@@ -3731,9 +3719,9 @@
       </c>
     </row>
     <row r="196" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="2" t="s">
         <v>86</v>
       </c>
@@ -3742,9 +3730,9 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="2" t="s">
         <v>87</v>
       </c>
@@ -3753,9 +3741,9 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
       <c r="D198" s="2" t="s">
         <v>88</v>
       </c>
@@ -3764,9 +3752,9 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="2" t="s">
         <v>89</v>
       </c>
@@ -3775,9 +3763,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="2" t="s">
         <v>90</v>
       </c>
@@ -3786,9 +3774,9 @@
       </c>
     </row>
     <row r="201" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
       <c r="D201" s="2" t="s">
         <v>91</v>
       </c>
@@ -3797,9 +3785,9 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
       <c r="D202" s="2" t="s">
         <v>92</v>
       </c>
@@ -3808,9 +3796,9 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="2" t="s">
         <v>93</v>
       </c>
@@ -3819,9 +3807,9 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="2" t="s">
         <v>94</v>
       </c>
@@ -3830,9 +3818,9 @@
       </c>
     </row>
     <row r="205" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
       <c r="D205" s="2" t="s">
         <v>105</v>
       </c>
@@ -3841,9 +3829,9 @@
       </c>
     </row>
     <row r="206" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
       <c r="D206" s="2" t="s">
         <v>106</v>
       </c>
@@ -3852,9 +3840,9 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
       <c r="D207" s="2">
         <v>31</v>
       </c>
@@ -3863,9 +3851,9 @@
       </c>
     </row>
     <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
       <c r="D208" s="2">
         <v>32</v>
       </c>
@@ -3874,9 +3862,9 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
       <c r="D209" s="2">
         <v>33</v>
       </c>
@@ -3885,9 +3873,9 @@
       </c>
     </row>
     <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="2">
         <v>34</v>
       </c>
@@ -3896,9 +3884,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
       <c r="D211" s="2">
         <v>35</v>
       </c>
@@ -3907,9 +3895,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="2">
         <v>36</v>
       </c>
@@ -3918,9 +3906,9 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="2">
         <v>37</v>
       </c>
@@ -3929,9 +3917,9 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
       <c r="D214" s="2">
         <v>38</v>
       </c>
@@ -3940,9 +3928,9 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="2">
         <v>39</v>
       </c>
@@ -3951,9 +3939,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="2">
         <v>40</v>
       </c>
@@ -3962,9 +3950,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="2">
         <v>41</v>
       </c>
@@ -3973,9 +3961,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="2">
         <v>42</v>
       </c>
@@ -3984,9 +3972,9 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="2">
         <v>43</v>
       </c>
@@ -3995,9 +3983,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="2">
         <v>44</v>
       </c>
@@ -4006,9 +3994,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="2">
         <v>45</v>
       </c>
@@ -4017,9 +4005,9 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="2">
         <v>46</v>
       </c>
@@ -4028,9 +4016,9 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="7"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="2">
         <v>47</v>
       </c>
@@ -4039,9 +4027,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="2">
         <v>48</v>
       </c>
@@ -4050,9 +4038,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="2">
         <v>49</v>
       </c>
@@ -4061,9 +4049,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="2">
         <v>50</v>
       </c>
@@ -4072,9 +4060,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="2">
         <v>51</v>
       </c>
@@ -4083,9 +4071,9 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="2">
         <v>52</v>
       </c>
@@ -4094,9 +4082,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="2">
         <v>53</v>
       </c>
@@ -4105,9 +4093,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+      <c r="A230" s="7"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
       <c r="D230" s="2">
         <v>54</v>
       </c>
@@ -4116,9 +4104,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="2">
         <v>55</v>
       </c>
@@ -4127,9 +4115,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="2">
         <v>56</v>
       </c>
@@ -4138,9 +4126,9 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="A233" s="7"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="2">
         <v>57</v>
       </c>
@@ -4149,9 +4137,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="2">
         <v>58</v>
       </c>
@@ -4160,9 +4148,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="2">
         <v>59</v>
       </c>
@@ -4171,9 +4159,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="2">
         <v>60</v>
       </c>
@@ -4182,9 +4170,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="2">
         <v>61</v>
       </c>
@@ -4193,9 +4181,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
       <c r="D238" s="2">
         <v>62</v>
       </c>
@@ -4204,9 +4192,9 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="2">
         <v>63</v>
       </c>
@@ -4215,9 +4203,9 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="2">
         <v>64</v>
       </c>
@@ -4226,9 +4214,9 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="2">
         <v>65</v>
       </c>
@@ -4237,9 +4225,9 @@
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="2">
         <v>66</v>
       </c>
@@ -4248,9 +4236,9 @@
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
+      <c r="A243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="2">
         <v>67</v>
       </c>
@@ -4259,9 +4247,9 @@
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
+      <c r="A244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="2">
         <v>68</v>
       </c>
@@ -4270,9 +4258,9 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
+      <c r="A245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
       <c r="D245" s="2">
         <v>69</v>
       </c>
@@ -4281,9 +4269,9 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
       <c r="D246" s="2">
         <v>70</v>
       </c>
@@ -4292,9 +4280,9 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
       <c r="D247" s="2">
         <v>71</v>
       </c>
@@ -4303,9 +4291,9 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
       <c r="D248" s="2">
         <v>72</v>
       </c>
@@ -4314,9 +4302,9 @@
       </c>
     </row>
     <row r="249" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
       <c r="D249" s="2">
         <v>73</v>
       </c>
@@ -4325,9 +4313,9 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="2">
         <v>74</v>
       </c>
@@ -4336,9 +4324,9 @@
       </c>
     </row>
     <row r="251" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="2">
         <v>75</v>
       </c>
@@ -4347,9 +4335,9 @@
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="2">
         <v>76</v>
       </c>
@@ -4358,9 +4346,9 @@
       </c>
     </row>
     <row r="253" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="2">
         <v>77</v>
       </c>
@@ -4369,9 +4357,9 @@
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="2">
         <v>78</v>
       </c>
@@ -4380,9 +4368,9 @@
       </c>
     </row>
     <row r="255" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
       <c r="D255" s="2">
         <v>1</v>
       </c>
@@ -4391,9 +4379,9 @@
       </c>
     </row>
     <row r="256" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
+      <c r="A256" s="7"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="2">
         <v>2</v>
       </c>
@@ -4402,9 +4390,9 @@
       </c>
     </row>
     <row r="257" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="2">
         <v>3</v>
       </c>
@@ -4413,9 +4401,9 @@
       </c>
     </row>
     <row r="258" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
       <c r="D258" s="2">
         <v>4</v>
       </c>
@@ -4424,9 +4412,9 @@
       </c>
     </row>
     <row r="259" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
+      <c r="A259" s="7"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="2">
         <v>5</v>
       </c>
@@ -4435,9 +4423,9 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
+      <c r="A260" s="7"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
       <c r="D260" s="2">
         <v>6</v>
       </c>
@@ -4446,9 +4434,9 @@
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="7"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
       <c r="D261" s="2" t="s">
         <v>185</v>
       </c>
@@ -4457,9 +4445,9 @@
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
+      <c r="A262" s="7"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
       <c r="D262" s="2" t="s">
         <v>186</v>
       </c>
@@ -4468,9 +4456,9 @@
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
+      <c r="A263" s="7"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
       <c r="D263" s="2" t="s">
         <v>287</v>
       </c>
@@ -4479,342 +4467,342 @@
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
+      <c r="A264" s="7"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
       <c r="D264" s="2"/>
       <c r="E264" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
+      <c r="A265" s="7"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
       <c r="D265" s="2"/>
       <c r="E265" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
+      <c r="A266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
       <c r="D266" s="2"/>
       <c r="E266" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
+      <c r="A267" s="7"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
       <c r="D267" s="2"/>
       <c r="E267" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
+      <c r="A268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="7"/>
       <c r="D268" s="2"/>
       <c r="E268" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
       <c r="D269" s="2"/>
       <c r="E269" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="2"/>
       <c r="E270" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
+      <c r="A271" s="7"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="7"/>
       <c r="D271" s="2"/>
       <c r="E271" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
+      <c r="A272" s="7"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
       <c r="D272" s="2"/>
       <c r="E272" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
       <c r="D273" s="2"/>
       <c r="E273" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
+      <c r="A278" s="7"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
+      <c r="A279" s="7"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
+      <c r="A280" s="7"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
+      <c r="A281" s="7"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="7"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
+      <c r="A283" s="7"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
+      <c r="A285" s="7"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
+      <c r="A286" s="7"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
+      <c r="A287" s="7"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
       <c r="D287" s="2"/>
       <c r="E287" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
+      <c r="A288" s="7"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
+      <c r="A289" s="7"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
       <c r="D289" s="2"/>
       <c r="E289" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
+      <c r="A290" s="7"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
+      <c r="A291" s="7"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
+      <c r="A292" s="7"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
+      <c r="A293" s="7"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
+      <c r="A294" s="7"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
+      <c r="A295" s="7"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="2"/>
       <c r="E295" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
+      <c r="A296" s="7"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
       <c r="D296" s="2"/>
       <c r="E296" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
+      <c r="A297" s="7"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="2"/>
       <c r="E297" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
+      <c r="A298" s="7"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="2"/>
       <c r="E298" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
+      <c r="A299" s="7"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="7"/>
       <c r="D299" s="2"/>
       <c r="E299" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
-      <c r="C300" s="8"/>
+      <c r="A300" s="7"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
       <c r="D300" s="2"/>
       <c r="E300" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
+      <c r="A301" s="7"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="2" t="s">
         <v>288</v>
       </c>
@@ -4823,74 +4811,74 @@
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
+      <c r="A302" s="7"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="2"/>
       <c r="E302" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
+      <c r="A303" s="7"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="2"/>
       <c r="E303" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
+      <c r="A304" s="7"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
       <c r="D304" s="2"/>
       <c r="E304" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
+      <c r="A305" s="7"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
       <c r="D305" s="2"/>
       <c r="E305" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8"/>
+      <c r="A306" s="7"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="2"/>
       <c r="E306" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
+      <c r="A307" s="7"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="2"/>
       <c r="E307" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8"/>
+      <c r="A308" s="7"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
       <c r="D308" s="2"/>
       <c r="E308" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A309" s="8"/>
-      <c r="B309" s="8" t="s">
+      <c r="A309" s="7"/>
+      <c r="B309" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -4901,9 +4889,9 @@
       </c>
     </row>
     <row r="310" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
+      <c r="A310" s="7"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="7"/>
       <c r="D310" s="2" t="s">
         <v>16</v>
       </c>
@@ -4912,11 +4900,11 @@
       </c>
     </row>
     <row r="311" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8" t="s">
+      <c r="A311" s="7"/>
+      <c r="B311" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -4927,22 +4915,22 @@
       </c>
     </row>
     <row r="312" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8"/>
+      <c r="A312" s="7"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E312" s="7" t="s">
+      <c r="E312" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="8"/>
-      <c r="B313" s="8" t="s">
+      <c r="A313" s="7"/>
+      <c r="B313" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -4953,20 +4941,22 @@
       </c>
     </row>
     <row r="314" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8"/>
+      <c r="A314" s="7"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="7"/>
       <c r="D314" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E314" s="6"/>
+      <c r="E314" s="6" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="315" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="8"/>
-      <c r="B315" s="9" t="s">
+      <c r="A315" s="7"/>
+      <c r="B315" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -4977,9 +4967,9 @@
       </c>
     </row>
     <row r="316" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="8"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
+      <c r="A316" s="7"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="2" t="s">
         <v>103</v>
       </c>
@@ -4988,9 +4978,9 @@
       </c>
     </row>
     <row r="317" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="8"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
+      <c r="A317" s="7"/>
+      <c r="B317" s="10"/>
+      <c r="C317" s="10"/>
       <c r="D317" s="2" t="s">
         <v>14</v>
       </c>
@@ -4998,6 +4988,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B315:B317"/>
     <mergeCell ref="A2:A317"/>
     <mergeCell ref="B309:B310"/>
     <mergeCell ref="C9:C13"/>
@@ -5014,7 +5005,6 @@
     <mergeCell ref="B2:B308"/>
     <mergeCell ref="C313:C314"/>
     <mergeCell ref="C315:C317"/>
-    <mergeCell ref="B315:B317"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5038,6 +5028,7 @@
     <hyperlink ref="E14" r:id="rId18" xr:uid="{9ED895BA-7F59-4C02-830D-514F7E280A45}"/>
     <hyperlink ref="E15:E30" r:id="rId19" display="https://nicktsai88.github.io/Pronunciation-Character-1/" xr:uid="{F940BDE3-F344-425C-89BD-824D8A4EF192}"/>
     <hyperlink ref="E312" r:id="rId20" xr:uid="{89012AA5-63DE-4732-9224-E489038B4B39}"/>
+    <hyperlink ref="E314" r:id="rId21" xr:uid="{AB2AC75B-BFC5-4AEA-AB7E-708170A9AA16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/快樂學習目錄.xlsx
+++ b/快樂學習目錄.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\文件\GitHub\List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5a4ad85d4246176/文件/GitHub/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89BBB-C88F-4C72-AD04-51ACE90A5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{2FD89BBB-C88F-4C72-AD04-51ACE90A5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585048C1-E2C1-446A-AAC3-080C61D7D72A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C0B7B273-AEE5-42CC-AAF6-C0C572BB594D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="355">
   <si>
     <t>國文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,27 +1263,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字型第1回-國小範圍(1~98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字型第2回-國小範圍(1~98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字型第3回-國小範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字型第4回-國小範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://nicktsai88.github.io/History3-L6/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://nicktsai88.github.io/Geography3-L6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第1回-國小範圍(1~100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第2回-國小範圍(101~199)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-18/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-19/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-20/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-21/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-22/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-23/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-24/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-25/</t>
+  </si>
+  <si>
+    <t>https://nicktsai88.github.io/Pronunciation-Character-26/</t>
+  </si>
+  <si>
+    <t>字型第3回-國小範圍(200~298)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第4回-國小範圍(299~382)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第5回-國小範圍(383~458)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第6回-國小範圍(459~531)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第7回-國小範圍(532~626)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第8回-國小範圍(627~705)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第9回-國小範圍(706~792)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第10回-國小範圍(793~882)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第11回-國小範圍(883~942)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第12回-國小範圍(943~1025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字型第13回-國小範圍(1026~1105)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,9 +1474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,6 +1481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,6 +1501,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE354E-102F-4806-ABB8-89D7BED1D4B3}">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1789,13 +1856,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1806,9 +1873,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2" t="s">
         <v>295</v>
       </c>
@@ -1817,9 +1884,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>296</v>
       </c>
@@ -1828,9 +1895,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1839,36 +1906,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1879,9 +1946,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>294</v>
       </c>
@@ -1890,27 +1957,27 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>285</v>
       </c>
@@ -1919,9 +1986,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1932,9 +1999,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>319</v>
       </c>
@@ -1943,9 +2010,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>320</v>
       </c>
@@ -1954,9 +2021,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2" t="s">
         <v>321</v>
       </c>
@@ -1965,9 +2032,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>322</v>
       </c>
@@ -1976,9 +2043,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>323</v>
       </c>
@@ -1987,9 +2054,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>324</v>
       </c>
@@ -1998,9 +2065,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>325</v>
       </c>
@@ -2009,9 +2076,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>326</v>
       </c>
@@ -2020,9 +2087,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>327</v>
       </c>
@@ -2031,9 +2098,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2" t="s">
         <v>328</v>
       </c>
@@ -2042,9 +2109,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2" t="s">
         <v>329</v>
       </c>
@@ -2053,9 +2120,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2" t="s">
         <v>330</v>
       </c>
@@ -2064,2971 +2131,3084 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="2" t="s">
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="2" t="s">
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="2" t="s">
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="2" t="s">
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="2" t="s">
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="2" t="s">
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="2" t="s">
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="2" t="s">
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="2" t="s">
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="2" t="s">
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="2" t="s">
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="2" t="s">
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="2" t="s">
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="2" t="s">
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="2" t="s">
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="2" t="s">
+    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="2" t="s">
+    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="2" t="s">
+    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="2" t="s">
+    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="2" t="s">
+    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="2" t="s">
+    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="2" t="s">
+    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="2" t="s">
+    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="2" t="s">
+    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="2" t="s">
+    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="2" t="s">
+    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="2" t="s">
+    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="2" t="s">
+    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="2" t="s">
+    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="2" t="s">
+    <row r="71" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="2" t="s">
+    <row r="72" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="2" t="s">
+    <row r="73" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="2" t="s">
+    <row r="74" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="2" t="s">
+    <row r="75" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="2" t="s">
+    <row r="76" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="2" t="s">
+    <row r="77" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="2" t="s">
+    <row r="78" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="2" t="s">
+    <row r="79" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="2" t="s">
+    <row r="80" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7" t="s">
+    <row r="81" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D81" s="2">
         <v>1</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="2">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="2">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="2">
         <v>3</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="2">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="2">
         <v>4</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="2">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="2">
         <v>5</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="2">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="2">
         <v>6</v>
       </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="2">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="2">
         <v>7</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="2">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="2">
         <v>8</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="2">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="2">
         <v>9</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="2">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="2">
         <v>10</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="2">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="2">
         <v>11</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="2">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="2">
         <v>12</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="2">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="2">
         <v>13</v>
       </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="2">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="2">
         <v>14</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="2">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="2">
         <v>15</v>
       </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="2">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="2">
         <v>16</v>
       </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="2">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="2">
         <v>17</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="2">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="2">
         <v>18</v>
       </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="2">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="2">
         <v>19</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="2">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="2">
         <v>20</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="2">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="2">
         <v>21</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="2">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="2">
         <v>22</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="2">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="2">
         <v>23</v>
       </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="2">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="2">
         <v>24</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="2">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="2">
         <v>25</v>
       </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="2">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="2">
         <v>26</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="2">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="2">
         <v>27</v>
       </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="2">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="2">
         <v>28</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="2">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="2">
         <v>29</v>
       </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="2">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="2">
         <v>30</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="2">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="2">
         <v>31</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="2">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="2">
         <v>32</v>
       </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="2">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="2">
         <v>33</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="2">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="2">
         <v>34</v>
       </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="2">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="2">
         <v>35</v>
       </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="2">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="2">
         <v>36</v>
       </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="2">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="2">
         <v>37</v>
       </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="2">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="2">
         <v>38</v>
       </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="2">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="2">
         <v>39</v>
       </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="2">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="2">
         <v>40</v>
       </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="2">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="2">
         <v>41</v>
       </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="2">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="2">
         <v>42</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="2">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="2">
         <v>43</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="2">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="2">
         <v>44</v>
       </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7" t="s">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="2" t="s">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="2" t="s">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="2" t="s">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="2" t="s">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="2" t="s">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="2" t="s">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="2">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="2">
         <v>8</v>
       </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="2">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="2">
         <v>9</v>
       </c>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="2">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="2">
         <v>10</v>
       </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="2">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="2">
         <v>11</v>
       </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="2">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="2">
         <v>12</v>
       </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="2">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="2">
         <v>13</v>
       </c>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="2">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="2">
         <v>14</v>
       </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="2">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="2">
         <v>15</v>
       </c>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="2">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="2">
         <v>16</v>
       </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="2">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="2">
         <v>17</v>
       </c>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="2">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="2">
         <v>18</v>
       </c>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="2">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="2">
         <v>19</v>
       </c>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="2">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="2">
         <v>20</v>
       </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="2">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="2">
         <v>21</v>
       </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="2">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="2">
         <v>22</v>
       </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="2">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="2">
         <v>23</v>
       </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="2">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="2">
         <v>24</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="2">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="2">
         <v>25</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="2">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="2">
         <v>26</v>
       </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="2">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="2">
         <v>27</v>
       </c>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="2">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="2">
         <v>28</v>
       </c>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="2">
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="2">
         <v>29</v>
       </c>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="2">
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="2">
         <v>30</v>
       </c>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="2">
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="2">
         <v>31</v>
       </c>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="2">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="2">
         <v>32</v>
       </c>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="2">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="2">
         <v>33</v>
       </c>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="2">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="2">
         <v>34</v>
       </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="2">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="2">
         <v>35</v>
       </c>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="2">
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="2">
         <v>36</v>
       </c>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="2">
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="2">
         <v>37</v>
       </c>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="2">
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="2">
         <v>38</v>
       </c>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="2">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="2">
         <v>39</v>
       </c>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="2">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="2">
         <v>40</v>
       </c>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="2">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="2">
         <v>41</v>
       </c>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="2">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="2">
         <v>42</v>
       </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="2">
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="2">
         <v>43</v>
       </c>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="2">
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="2">
         <v>44</v>
       </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="2">
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="2">
         <v>45</v>
       </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="2">
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="2">
         <v>46</v>
       </c>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="2">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="2">
         <v>47</v>
       </c>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="2">
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="2">
         <v>48</v>
       </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="2">
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="2">
         <v>49</v>
       </c>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="2">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="2">
         <v>50</v>
       </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="2">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="2">
         <v>51</v>
       </c>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="2">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="2">
         <v>52</v>
       </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="2">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="2">
         <v>53</v>
       </c>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="2">
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="2">
         <v>54</v>
       </c>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="2">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="2">
         <v>55</v>
       </c>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="2">
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="2">
         <v>56</v>
       </c>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="2">
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="2">
         <v>57</v>
       </c>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="2">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="2">
         <v>58</v>
       </c>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="2">
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="2">
         <v>59</v>
       </c>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="2">
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="2">
         <v>60</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="2">
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="2">
         <v>61</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="2">
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="2">
         <v>62</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7" t="s">
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="2" t="s">
+    <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E188" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="2" t="s">
+    <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E189" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="2" t="s">
+    <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E190" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="2" t="s">
+    <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E191" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="2" t="s">
+    <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="2" t="s">
+    <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E193" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="2" t="s">
+    <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E194" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="2" t="s">
+    <row r="195" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E195" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="2" t="s">
+    <row r="196" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E196" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="2" t="s">
+    <row r="197" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="E197" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="2" t="s">
+    <row r="198" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E198" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="2" t="s">
+    <row r="199" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E199" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="2" t="s">
+    <row r="200" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E200" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="2" t="s">
+    <row r="201" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="2" t="s">
+    <row r="202" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E202" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="2" t="s">
+    <row r="203" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="2" t="s">
+    <row r="204" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E204" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="2" t="s">
+    <row r="205" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E205" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="2" t="s">
+    <row r="206" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E206" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="2" t="s">
+    <row r="207" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E207" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="2" t="s">
+    <row r="208" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="2" t="s">
+    <row r="209" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="2" t="s">
+    <row r="210" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="2" t="s">
+    <row r="211" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E211" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="2" t="s">
+    <row r="212" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E212" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="2" t="s">
+    <row r="213" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E213" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="2" t="s">
+    <row r="214" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E214" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="2" t="s">
+    <row r="215" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E215" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="2" t="s">
+    <row r="216" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E216" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="2">
+    <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="2">
         <v>31</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E217" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="2">
+    <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="2">
         <v>32</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E218" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="2">
+    <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="2">
         <v>33</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E219" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="2">
+    <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="2">
         <v>34</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E220" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="2">
+    <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="2">
         <v>35</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E221" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="2">
+    <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="2">
         <v>36</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E222" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="2">
+    <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="2">
         <v>37</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="E223" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="2">
+    <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="2">
         <v>38</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E224" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="2">
+    <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="2">
         <v>39</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E225" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="2">
+    <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="2">
         <v>40</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E226" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="2">
+    <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="2">
         <v>41</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E227" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="2">
+    <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="2">
         <v>42</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E228" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="2">
+    <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="2">
         <v>43</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E229" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="2">
+    <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="2">
         <v>44</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E230" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="2">
+    <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="2">
         <v>45</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="E231" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="2">
+    <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="2">
         <v>46</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E232" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="2">
+    <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="2">
         <v>47</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E233" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="2">
+    <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="2">
         <v>48</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="E234" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="2">
+    <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="2">
         <v>49</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="E235" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="2">
+    <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="2">
         <v>50</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="E236" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="2">
+    <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="2">
         <v>51</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E237" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="2">
+    <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="2">
         <v>52</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E238" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="2">
+    <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="2">
         <v>53</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E239" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="2">
+    <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="2">
         <v>54</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E240" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="2">
+    <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="2">
         <v>55</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E241" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="2">
+    <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="2">
         <v>56</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E242" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="2">
+    <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="2">
         <v>57</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="E243" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="2">
+    <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="2">
         <v>58</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E244" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="2">
+    <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="2">
         <v>59</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E245" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="2">
+    <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="2">
         <v>60</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E246" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="2">
+    <row r="247" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="2">
         <v>61</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="E247" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="2">
+    <row r="248" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="2">
         <v>62</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="E248" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="2">
+    <row r="249" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="2">
         <v>63</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="E249" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="2">
+    <row r="250" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="2">
         <v>64</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="E250" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="2">
+    <row r="251" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="2">
         <v>65</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="E251" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="2">
+    <row r="252" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="2">
         <v>66</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="E252" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="2">
+    <row r="253" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="2">
         <v>67</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="E253" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="2">
+    <row r="254" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="2">
         <v>68</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="E254" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="2">
+    <row r="255" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="2">
         <v>69</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="E255" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="2">
+    <row r="256" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="2">
         <v>70</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="2">
+    <row r="257" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="2">
         <v>71</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="E257" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="2">
+    <row r="258" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="2">
         <v>72</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="E258" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="2">
+    <row r="259" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="2">
         <v>73</v>
       </c>
-      <c r="E249" s="6" t="s">
+      <c r="E259" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="2">
+    <row r="260" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="2">
         <v>74</v>
       </c>
-      <c r="E250" s="6" t="s">
+      <c r="E260" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="2">
+    <row r="261" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="2">
         <v>75</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="E261" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="2">
+    <row r="262" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="2">
         <v>76</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="E262" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="2">
+    <row r="263" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="2">
         <v>77</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E263" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="2">
+    <row r="264" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="2">
         <v>78</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="E264" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="2">
+    <row r="265" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="2">
         <v>1</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E265" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="2">
+    <row r="266" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="2">
         <v>2</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="E266" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="2">
+    <row r="267" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="2">
         <v>3</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="E267" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="2">
+    <row r="268" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="2">
         <v>4</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="E268" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="2">
+    <row r="269" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="2">
         <v>5</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="E269" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="2">
+    <row r="270" spans="1:5" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="2">
         <v>6</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="E270" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="2" t="s">
+    <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E261" s="6" t="s">
+      <c r="E271" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="2" t="s">
+    <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E262" s="6" t="s">
+      <c r="E272" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="2" t="s">
+    <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E273" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
-      <c r="C274" s="7"/>
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
       <c r="D274" s="2"/>
       <c r="E274" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
-      <c r="C275" s="7"/>
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
       <c r="D275" s="2"/>
       <c r="E275" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
-      <c r="C276" s="7"/>
+      <c r="A276" s="10"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
       <c r="D276" s="2"/>
       <c r="E276" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
-      <c r="C277" s="7"/>
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
       <c r="D277" s="2"/>
       <c r="E277" s="6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
-      <c r="C278" s="7"/>
+      <c r="A278" s="10"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="10"/>
       <c r="D278" s="2"/>
       <c r="E278" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
-      <c r="C279" s="7"/>
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
       <c r="D279" s="2"/>
       <c r="E279" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
-      <c r="C280" s="7"/>
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10"/>
       <c r="D280" s="2"/>
       <c r="E280" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
       <c r="D281" s="2"/>
       <c r="E281" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="10"/>
       <c r="D282" s="2"/>
       <c r="E282" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
       <c r="D283" s="2"/>
       <c r="E283" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
       <c r="D284" s="2"/>
       <c r="E284" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
       <c r="D285" s="2"/>
       <c r="E285" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
       <c r="D286" s="2"/>
       <c r="E286" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="10"/>
       <c r="D287" s="2"/>
       <c r="E287" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="10"/>
       <c r="D288" s="2"/>
       <c r="E288" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="10"/>
       <c r="D289" s="2"/>
       <c r="E289" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
       <c r="D290" s="2"/>
       <c r="E290" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="10"/>
       <c r="D291" s="2"/>
       <c r="E291" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
       <c r="D292" s="2"/>
       <c r="E292" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
       <c r="D293" s="2"/>
       <c r="E293" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
+      <c r="A294" s="10"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="10"/>
       <c r="D294" s="2"/>
       <c r="E294" s="6" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
+      <c r="A295" s="10"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
       <c r="D295" s="2"/>
       <c r="E295" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
-      <c r="C296" s="7"/>
+      <c r="A296" s="10"/>
+      <c r="B296" s="10"/>
+      <c r="C296" s="10"/>
       <c r="D296" s="2"/>
       <c r="E296" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
-      <c r="C297" s="7"/>
+      <c r="A297" s="10"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="10"/>
       <c r="D297" s="2"/>
       <c r="E297" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
-      <c r="C298" s="7"/>
+      <c r="A298" s="10"/>
+      <c r="B298" s="10"/>
+      <c r="C298" s="10"/>
       <c r="D298" s="2"/>
       <c r="E298" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="7"/>
-      <c r="B299" s="7"/>
-      <c r="C299" s="7"/>
+      <c r="A299" s="10"/>
+      <c r="B299" s="10"/>
+      <c r="C299" s="10"/>
       <c r="D299" s="2"/>
       <c r="E299" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
-      <c r="C300" s="7"/>
+      <c r="A300" s="10"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
       <c r="D300" s="2"/>
       <c r="E300" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
-      <c r="C301" s="7"/>
-      <c r="D301" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="A301" s="10"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="2"/>
       <c r="E301" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
+      <c r="A302" s="10"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
       <c r="D302" s="2"/>
       <c r="E302" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
-      <c r="C303" s="7"/>
+      <c r="A303" s="10"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="10"/>
       <c r="D303" s="2"/>
       <c r="E303" s="6" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="7"/>
-      <c r="B304" s="7"/>
-      <c r="C304" s="7"/>
+      <c r="A304" s="10"/>
+      <c r="B304" s="10"/>
+      <c r="C304" s="10"/>
       <c r="D304" s="2"/>
       <c r="E304" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
+      <c r="A305" s="10"/>
+      <c r="B305" s="10"/>
+      <c r="C305" s="10"/>
       <c r="D305" s="2"/>
       <c r="E305" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="A306" s="10"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="10"/>
       <c r="D306" s="2"/>
       <c r="E306" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
+      <c r="A307" s="10"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
       <c r="D307" s="2"/>
       <c r="E307" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
+      <c r="A308" s="10"/>
+      <c r="B308" s="10"/>
+      <c r="C308" s="10"/>
       <c r="D308" s="2"/>
       <c r="E308" s="6" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A309" s="7"/>
-      <c r="B309" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A309" s="10"/>
+      <c r="B309" s="10"/>
+      <c r="C309" s="10"/>
+      <c r="D309" s="2"/>
       <c r="E309" s="6" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="2"/>
       <c r="E310" s="6" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="7"/>
-      <c r="B311" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A311" s="10"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="10"/>
       <c r="D311" s="2" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
-      <c r="C312" s="7"/>
-      <c r="D312" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="2"/>
       <c r="E312" s="6" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="7"/>
-      <c r="B313" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A313" s="10"/>
+      <c r="B313" s="10"/>
+      <c r="C313" s="10"/>
+      <c r="D313" s="2"/>
       <c r="E313" s="6" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
-      <c r="C314" s="7"/>
-      <c r="D314" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
+      <c r="C314" s="10"/>
+      <c r="D314" s="2"/>
       <c r="E314" s="6" t="s">
-        <v>336</v>
+        <v>227</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="7"/>
-      <c r="B315" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="A315" s="10"/>
+      <c r="B315" s="10"/>
+      <c r="C315" s="10"/>
+      <c r="D315" s="2"/>
       <c r="E315" s="6" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="7"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A316" s="10"/>
+      <c r="B316" s="10"/>
+      <c r="C316" s="10"/>
+      <c r="D316" s="2"/>
       <c r="E316" s="6" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="7"/>
+      <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
-      <c r="D317" s="2" t="s">
+      <c r="D317" s="2"/>
+      <c r="E317" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A318" s="10"/>
+      <c r="B318" s="10"/>
+      <c r="C318" s="10"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A319" s="10"/>
+      <c r="B319" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="10"/>
+      <c r="B320" s="10"/>
+      <c r="C320" s="10"/>
+      <c r="D320" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="10"/>
+      <c r="B321" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A322" s="10"/>
+      <c r="B322" s="10"/>
+      <c r="C322" s="10"/>
+      <c r="D322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A323" s="10"/>
+      <c r="B323" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="10"/>
+      <c r="B324" s="10"/>
+      <c r="C324" s="10"/>
+      <c r="D324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F324" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="10"/>
+      <c r="B325" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A326" s="10"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F326" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A327" s="10"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E317" s="6"/>
+      <c r="E327" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B315:B317"/>
-    <mergeCell ref="A2:A317"/>
-    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="B325:B327"/>
+    <mergeCell ref="A2:A327"/>
+    <mergeCell ref="B319:B320"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C31:C70"/>
-    <mergeCell ref="C71:C114"/>
-    <mergeCell ref="C115:C176"/>
-    <mergeCell ref="C14:C30"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="C311:C312"/>
-    <mergeCell ref="C177:C308"/>
-    <mergeCell ref="B2:B308"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="C41:C80"/>
+    <mergeCell ref="C81:C124"/>
+    <mergeCell ref="C125:C186"/>
+    <mergeCell ref="C14:C40"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="C187:C318"/>
+    <mergeCell ref="B2:B318"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E261" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
-    <hyperlink ref="E262" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
-    <hyperlink ref="E263" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
-    <hyperlink ref="E264:E267" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
-    <hyperlink ref="E268:E284" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
-    <hyperlink ref="E285:E308" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
-    <hyperlink ref="E316" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
+    <hyperlink ref="E271" r:id="rId1" xr:uid="{57658F0E-730D-456D-9ABB-238918BFEDD0}"/>
+    <hyperlink ref="E272" r:id="rId2" xr:uid="{805A7869-0C43-4CF4-AB84-2A33D9261344}"/>
+    <hyperlink ref="E273" r:id="rId3" xr:uid="{CB6C3194-C27A-4BB5-A14B-BC32D3D976C3}"/>
+    <hyperlink ref="E274:E277" r:id="rId4" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{851C433B-ACE0-4542-8295-51B23A1F0964}"/>
+    <hyperlink ref="E278:E294" r:id="rId5" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{1C1AF8A7-1B8B-470F-BB64-86871BA994C3}"/>
+    <hyperlink ref="E295:E318" r:id="rId6" display="https://nicktsai88.github.io/PushChineseClassical-033" xr:uid="{6B7ED702-F372-409B-A5B8-AACCB6EAA74A}"/>
+    <hyperlink ref="E326" r:id="rId7" xr:uid="{3F68FD5A-21DA-43C8-BB74-89F51E69812D}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{616D6D0B-3564-4836-B0A5-3959C7B2B9DD}"/>
-    <hyperlink ref="E315" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
+    <hyperlink ref="E325" r:id="rId9" xr:uid="{608EA298-D6F9-4975-A6D4-3F59A0FC26E8}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{E54C7502-3B46-49A1-AA85-C3759ED96EDD}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{A24A5C06-E5E5-472B-9143-420E513C860D}"/>
     <hyperlink ref="E4" r:id="rId12" xr:uid="{EA025ED2-F0C3-4508-A581-2DAC225D4BA3}"/>
     <hyperlink ref="E3" r:id="rId13" xr:uid="{0A5E0D75-905F-4971-A932-2FD3F3D11870}"/>
-    <hyperlink ref="E308" r:id="rId14" xr:uid="{9387D63B-599E-428A-B0B0-72B373DFD96B}"/>
-    <hyperlink ref="E309" r:id="rId15" xr:uid="{3A8DAEC1-0766-46F5-B045-E34FA545C131}"/>
-    <hyperlink ref="E310" r:id="rId16" xr:uid="{8183DD79-0428-4B1F-B386-D27DDE1A4E74}"/>
-    <hyperlink ref="E311" r:id="rId17" xr:uid="{A2152C86-1C08-4C22-8D27-96977B890A24}"/>
+    <hyperlink ref="E318" r:id="rId14" xr:uid="{9387D63B-599E-428A-B0B0-72B373DFD96B}"/>
+    <hyperlink ref="E319" r:id="rId15" xr:uid="{3A8DAEC1-0766-46F5-B045-E34FA545C131}"/>
+    <hyperlink ref="E320" r:id="rId16" xr:uid="{8183DD79-0428-4B1F-B386-D27DDE1A4E74}"/>
+    <hyperlink ref="E321" r:id="rId17" xr:uid="{A2152C86-1C08-4C22-8D27-96977B890A24}"/>
     <hyperlink ref="E14" r:id="rId18" xr:uid="{9ED895BA-7F59-4C02-830D-514F7E280A45}"/>
-    <hyperlink ref="E15:E30" r:id="rId19" display="https://nicktsai88.github.io/Pronunciation-Character-1/" xr:uid="{F940BDE3-F344-425C-89BD-824D8A4EF192}"/>
-    <hyperlink ref="E312" r:id="rId20" xr:uid="{89012AA5-63DE-4732-9224-E489038B4B39}"/>
-    <hyperlink ref="E314" r:id="rId21" xr:uid="{AB2AC75B-BFC5-4AEA-AB7E-708170A9AA16}"/>
+    <hyperlink ref="E322" r:id="rId19" xr:uid="{89012AA5-63DE-4732-9224-E489038B4B39}"/>
+    <hyperlink ref="E324" r:id="rId20" xr:uid="{AB2AC75B-BFC5-4AEA-AB7E-708170A9AA16}"/>
+    <hyperlink ref="E30" r:id="rId21" display="https://nicktsai88.github.io/Pronunciation-Character-1/" xr:uid="{1CCDDCBB-B0B0-4A05-A36B-3F411BCF19E1}"/>
+    <hyperlink ref="E31:E39" r:id="rId22" display="https://nicktsai88.github.io/Pronunciation-Character-1/" xr:uid="{72848010-0B8E-46E5-B194-5E207F36FDA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
